--- a/data/hotels_by_city/Dallas/Dallas_shard_669.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_669.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="529">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1481 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r416639692-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>30183</t>
+  </si>
+  <si>
+    <t>73771</t>
+  </si>
+  <si>
+    <t>416639692</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>Do not stay here</t>
+  </si>
+  <si>
+    <t>I cannot believe I was charged nearly $100USD to stay in a room here. It's is dirty, run down and items in our room were broken. Stay somewhere else even if you have to pay extra. Nobody should be paying more than $50USD a night here.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r383815623-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>383815623</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>Its ok</t>
+  </si>
+  <si>
+    <t>I reserved three rooms for a weekend vacation with my kids. Each room was different; one room didn't have a mirror, two didn't have hair dryers, but all had a small flat screen TV, fridge, and microwave. There were no in room coffee pots. The hotel offered a continental breakfast which was cereal, toast, small honey buns, orange juice and coffee. So we ended up eating breakfast somewhere else. The hotel staff was stingy on towels, expecting four adults to use two towels but quickly gave me more when I complained. The housekeeping staff took two white towels that my daughter brought from her home and hadn't returned them yet. The hotel is next to train tracks and the trains ran all night. The room itself was decent; clean sheets and two pillows per bed. There was a hole in the ceiling of one shower and it's not clear what is was for. Parking is sparce for front rooms so when we returned we had to park in the back. My daughters shared that they felt the housekeeping staff went through their drawers but nothing was taken. Overall it was a good stay but not sure if we will use this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I reserved three rooms for a weekend vacation with my kids. Each room was different; one room didn't have a mirror, two didn't have hair dryers, but all had a small flat screen TV, fridge, and microwave. There were no in room coffee pots. The hotel offered a continental breakfast which was cereal, toast, small honey buns, orange juice and coffee. So we ended up eating breakfast somewhere else. The hotel staff was stingy on towels, expecting four adults to use two towels but quickly gave me more when I complained. The housekeeping staff took two white towels that my daughter brought from her home and hadn't returned them yet. The hotel is next to train tracks and the trains ran all night. The room itself was decent; clean sheets and two pillows per bed. There was a hole in the ceiling of one shower and it's not clear what is was for. Parking is sparce for front rooms so when we returned we had to park in the back. My daughters shared that they felt the housekeeping staff went through their drawers but nothing was taken. Overall it was a good stay but not sure if we will use this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r334444305-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>334444305</t>
+  </si>
+  <si>
+    <t>12/22/2015</t>
+  </si>
+  <si>
+    <t>Cheap but not cheerful</t>
+  </si>
+  <si>
+    <t>I knew I was booking a cheap hotel but it quicky became clear the hotel was being refurbished and I was staying in an unrefurbished room.  Peeling lampshade, peeling sink, light in bathroom not working, lumpy pillows.On the good side it was a trip down memory lane to the 1960s when this quality was more normal.  The staff person was helpful (except about the light bulb, which he promised to change and didn't) and the restaurant was good if you like authentic Mexican cantina food, which I do.So - I had expected the minimum standard for a Days Inn would have been a lot higher.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r324506404-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>324506404</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>if I could give a less then 1 I would!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was changing in my room when matieance open my door!!! My husband stopped them but damage was done. They saw me naked!! Sheets were filthy, restroom smelled and the employees rude as hell. Never again we are dallas cowboy season ticket holders and we visit Arlington weekly and we will never stay there again. </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r324275259-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>324275259</t>
+  </si>
+  <si>
+    <t>11/03/2015</t>
+  </si>
+  <si>
+    <t>Booooo!</t>
+  </si>
+  <si>
+    <t>Spent the day at Six Flags "Fright Fest". Only time I got scared was thinking I had to pay 100$ for that dump of a room we stayed in that night. Ridiculous! We don't get out as a family much , and the kids are always excited to see what room pops has gotten for them. Made me look like a chump. Six Flags needs to be reimbursed for having there name associated with this place. Rant over.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r297324958-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>297324958</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>Don't stay here</t>
+  </si>
+  <si>
+    <t>I know I didn't pay all that much to stay here, but I still gave them my money and you should still give decent customer service. The guy at the desk wasn't very friendly and he didn't even bother telling us that our room was in the second building back(instead he watched us take our things through the lobby to walk all the way back) It's also under construction or something at the moment(which I totally understand) but maybe a note or something to notify guests before booking would be nice. They had large trash bins all over the parking lots(even in the spaces by the rooms that were open) and it just seemed like a total mess. The room itself did at least smell okay but it was very hot when we got in. The paint was coming off the walls and we had stuff drawn on the back of our bathroom door. The thing that really made me come to leave this review was that I especially called a couple of weeks in advance to make sure they would hold our things and have a shuttle that could take us to six flags the day we checked out. Whoever I spoke with assured us that they did and did not hesitate to do so. On the day we needed it the guy wasn't all that friendly and told us he would not hold our things(tbh i don't think...I know I didn't pay all that much to stay here, but I still gave them my money and you should still give decent customer service. The guy at the desk wasn't very friendly and he didn't even bother telling us that our room was in the second building back(instead he watched us take our things through the lobby to walk all the way back) It's also under construction or something at the moment(which I totally understand) but maybe a note or something to notify guests before booking would be nice. They had large trash bins all over the parking lots(even in the spaces by the rooms that were open) and it just seemed like a total mess. The room itself did at least smell okay but it was very hot when we got in. The paint was coming off the walls and we had stuff drawn on the back of our bathroom door. The thing that really made me come to leave this review was that I especially called a couple of weeks in advance to make sure they would hold our things and have a shuttle that could take us to six flags the day we checked out. Whoever I spoke with assured us that they did and did not hesitate to do so. On the day we needed it the guy wasn't all that friendly and told us he would not hold our things(tbh i don't think I would have wanted them too anyways) but it was very disappointing and we had to re-plan the day. Over all, the staff isn't friendly, the rooms are run down and I would never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I know I didn't pay all that much to stay here, but I still gave them my money and you should still give decent customer service. The guy at the desk wasn't very friendly and he didn't even bother telling us that our room was in the second building back(instead he watched us take our things through the lobby to walk all the way back) It's also under construction or something at the moment(which I totally understand) but maybe a note or something to notify guests before booking would be nice. They had large trash bins all over the parking lots(even in the spaces by the rooms that were open) and it just seemed like a total mess. The room itself did at least smell okay but it was very hot when we got in. The paint was coming off the walls and we had stuff drawn on the back of our bathroom door. The thing that really made me come to leave this review was that I especially called a couple of weeks in advance to make sure they would hold our things and have a shuttle that could take us to six flags the day we checked out. Whoever I spoke with assured us that they did and did not hesitate to do so. On the day we needed it the guy wasn't all that friendly and told us he would not hold our things(tbh i don't think...I know I didn't pay all that much to stay here, but I still gave them my money and you should still give decent customer service. The guy at the desk wasn't very friendly and he didn't even bother telling us that our room was in the second building back(instead he watched us take our things through the lobby to walk all the way back) It's also under construction or something at the moment(which I totally understand) but maybe a note or something to notify guests before booking would be nice. They had large trash bins all over the parking lots(even in the spaces by the rooms that were open) and it just seemed like a total mess. The room itself did at least smell okay but it was very hot when we got in. The paint was coming off the walls and we had stuff drawn on the back of our bathroom door. The thing that really made me come to leave this review was that I especially called a couple of weeks in advance to make sure they would hold our things and have a shuttle that could take us to six flags the day we checked out. Whoever I spoke with assured us that they did and did not hesitate to do so. On the day we needed it the guy wasn't all that friendly and told us he would not hold our things(tbh i don't think I would have wanted them too anyways) but it was very disappointing and we had to re-plan the day. Over all, the staff isn't friendly, the rooms are run down and I would never stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r270850770-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>270850770</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>Literally a Roach Motel</t>
+  </si>
+  <si>
+    <t>Traveled here as a sponsor on a school trip. The rooms had to be on the cheaper end, as the students raised the money themselves. This, however, was ridiculous! The paint on the doors were peeling. Some doors were broken. The smoke detectors had been removed. There were bugs in the beds and on the floors. There was food left in the drawers and on the floor. The rooms themselves were absolutely filthy. We did not feel that it was a safe or healthy environment for our students so we demand our money back and left. We are thankful to Holiday Inn for accommodating us at such short notice. I feel bad we brought the kids to a place like this.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Traveled here as a sponsor on a school trip. The rooms had to be on the cheaper end, as the students raised the money themselves. This, however, was ridiculous! The paint on the doors were peeling. Some doors were broken. The smoke detectors had been removed. There were bugs in the beds and on the floors. There was food left in the drawers and on the floor. The rooms themselves were absolutely filthy. We did not feel that it was a safe or healthy environment for our students so we demand our money back and left. We are thankful to Holiday Inn for accommodating us at such short notice. I feel bad we brought the kids to a place like this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r266915845-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>266915845</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r266803124-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>266803124</t>
+  </si>
+  <si>
+    <t>Fraudlent water main break</t>
+  </si>
+  <si>
+    <t>My finance booked a room a year ago to the Academy of Country Music awards. The price was $68 per night. When we show up for the room the East Indian owner said the rooms were no longer available because of a water main break but $168 he could find us something. We had a United states senator in our party and he gave us rooms at the Hilton. I have a friend in the Ft Worth police dept there was no water main break, strictly a lie, they put 50 people on the street. This is America, like it or leave</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r256237353-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>256237353</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>Computer Down Wrong Room</t>
+  </si>
+  <si>
+    <t>Computers were down so we were given a random room. It smelled like it been closed up for months. Mildew kinda smell. We requested a king bed, were given two regular beds as that was only room with a key that worked because computers were down.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r255896803-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>255896803</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r255547689-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>255547689</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>WORST HOTEL EVER!!</t>
+  </si>
+  <si>
+    <t>This is the worst hotel I have ever stayed in! Where do I begin? The staff does not speak english and were very rude and unwilling to help any guest. The rooms are outdated, dirty and nasty. There was mold all in the bathroom. I asked for a non smoking room, the room they gave me smelled like an ashtray.There were people walking all around the parking lot and up and down the halls yelling as loud as they could (being the rooms were outside and is not in a safe neighborhood at all) It seemed like nothing but drug and illegal activity was going on in parking lot. It is literally located 10 feet from a very busy train track which blows its horn ALL night long. I asked to speak to the owner about my experience and when I finally spoke to him after a long run around from the front desk saying he was not available, he seemed like he could careless what I or any of his customers have to say. VERY RUDE MAN his name is Tony I believe. The breakfast is HORRIBLE. milk was sour cereal was stale and there was no coffee! I wish there is a way that I could get this hotel shut down or at least cleaned up, even though that wont change the attitude of the staff. I wouldn't let a homeless person stay there much less my family....This is the worst hotel I have ever stayed in! Where do I begin? The staff does not speak english and were very rude and unwilling to help any guest. The rooms are outdated, dirty and nasty. There was mold all in the bathroom. I asked for a non smoking room, the room they gave me smelled like an ashtray.There were people walking all around the parking lot and up and down the halls yelling as loud as they could (being the rooms were outside and is not in a safe neighborhood at all) It seemed like nothing but drug and illegal activity was going on in parking lot. It is literally located 10 feet from a very busy train track which blows its horn ALL night long. I asked to speak to the owner about my experience and when I finally spoke to him after a long run around from the front desk saying he was not available, he seemed like he could careless what I or any of his customers have to say. VERY RUDE MAN his name is Tony I believe. The breakfast is HORRIBLE. milk was sour cereal was stale and there was no coffee! I wish there is a way that I could get this hotel shut down or at least cleaned up, even though that wont change the attitude of the staff. I wouldn't let a homeless person stay there much less my family. The price was ridiculous for such nasty rooms but I had no choice to stay there as my reservation was prepaid and front desk told me there was no refunds anyway.. Please do not bring anymore business to this hotel. You would be better off sleeping in your car!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the worst hotel I have ever stayed in! Where do I begin? The staff does not speak english and were very rude and unwilling to help any guest. The rooms are outdated, dirty and nasty. There was mold all in the bathroom. I asked for a non smoking room, the room they gave me smelled like an ashtray.There were people walking all around the parking lot and up and down the halls yelling as loud as they could (being the rooms were outside and is not in a safe neighborhood at all) It seemed like nothing but drug and illegal activity was going on in parking lot. It is literally located 10 feet from a very busy train track which blows its horn ALL night long. I asked to speak to the owner about my experience and when I finally spoke to him after a long run around from the front desk saying he was not available, he seemed like he could careless what I or any of his customers have to say. VERY RUDE MAN his name is Tony I believe. The breakfast is HORRIBLE. milk was sour cereal was stale and there was no coffee! I wish there is a way that I could get this hotel shut down or at least cleaned up, even though that wont change the attitude of the staff. I wouldn't let a homeless person stay there much less my family....This is the worst hotel I have ever stayed in! Where do I begin? The staff does not speak english and were very rude and unwilling to help any guest. The rooms are outdated, dirty and nasty. There was mold all in the bathroom. I asked for a non smoking room, the room they gave me smelled like an ashtray.There were people walking all around the parking lot and up and down the halls yelling as loud as they could (being the rooms were outside and is not in a safe neighborhood at all) It seemed like nothing but drug and illegal activity was going on in parking lot. It is literally located 10 feet from a very busy train track which blows its horn ALL night long. I asked to speak to the owner about my experience and when I finally spoke to him after a long run around from the front desk saying he was not available, he seemed like he could careless what I or any of his customers have to say. VERY RUDE MAN his name is Tony I believe. The breakfast is HORRIBLE. milk was sour cereal was stale and there was no coffee! I wish there is a way that I could get this hotel shut down or at least cleaned up, even though that wont change the attitude of the staff. I wouldn't let a homeless person stay there much less my family. The price was ridiculous for such nasty rooms but I had no choice to stay there as my reservation was prepaid and front desk told me there was no refunds anyway.. Please do not bring anymore business to this hotel. You would be better off sleeping in your car!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r245952062-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>245952062</t>
+  </si>
+  <si>
+    <t>12/26/2014</t>
+  </si>
+  <si>
+    <t>Very bad experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extremely dirty. One bed does not have blanket, called three more times, still did not provide blanket. The other blanket is extremely dirty, with sort of liquid spill. Asked to change the blanket, they did not change. </t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r245867954-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>245867954</t>
+  </si>
+  <si>
+    <t>12/25/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r245785074-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>245785074</t>
+  </si>
+  <si>
+    <t>12/24/2014</t>
+  </si>
+  <si>
+    <t>real dirty</t>
+  </si>
+  <si>
+    <t>very dirty room, I had a non-smoking room reservation and when I got there they only had smoking wich was filthy</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r243089193-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>243089193</t>
+  </si>
+  <si>
+    <t>12/05/2014</t>
+  </si>
+  <si>
+    <t>You get what you pay for.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes the hotel is run down yes the staff isn't all that friendly but then again when you pay less than 50 what can you expect. The only reason I stayed was because it was a cheap hotel with free shuttle service to the Cowboys game.  </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r242157565-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>242157565</t>
+  </si>
+  <si>
+    <t>11/30/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r238385820-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>238385820</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r238168051-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>238168051</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>Not a happy camper....</t>
+  </si>
+  <si>
+    <t>Picked this place because of the shuttle to the Cowboy's game and price.  Found out that it's not even worth the price.  The room had a terrible smell.  The sheets had dead insects in them..(had them replaced).  The sink was leaking all night.  Turned on the heater and it set off the alarm.  No microwave or fridge or iron...as stated online.  And the breakfast was non-existent.  And we wake up in the morning to find out a police car outside taking a statement from someone who had his tool box stolen from his truck the night before.The shuttle was good...did drop us off and picked us up as stated.  But I would have paid for parking next time or grabbed a taxi.  It was a long wait.All in all...I would never stay there again. Final thoughts.....for a place that caters to people who go to the games and to the amusement parks around there and potential repeat returners...you would think they would read these reviews and fix the problems.  Obviously they don't care....and in my book..that's not how you run a business.MoreShow less</t>
+  </si>
+  <si>
+    <t>Picked this place because of the shuttle to the Cowboy's game and price.  Found out that it's not even worth the price.  The room had a terrible smell.  The sheets had dead insects in them..(had them replaced).  The sink was leaking all night.  Turned on the heater and it set off the alarm.  No microwave or fridge or iron...as stated online.  And the breakfast was non-existent.  And we wake up in the morning to find out a police car outside taking a statement from someone who had his tool box stolen from his truck the night before.The shuttle was good...did drop us off and picked us up as stated.  But I would have paid for parking next time or grabbed a taxi.  It was a long wait.All in all...I would never stay there again. Final thoughts.....for a place that caters to people who go to the games and to the amusement parks around there and potential repeat returners...you would think they would read these reviews and fix the problems.  Obviously they don't care....and in my book..that's not how you run a business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r237916883-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>237916883</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Good location, disappointed that shuttle only ran till 10...</t>
+  </si>
+  <si>
+    <t>Good location, disappointed that shuttle only ran till 10 pm, when we were told it would run till 11 pm on game day.  Quite a few guests had to walk the 3 1/2 miles back to motel due to this issue.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r237902868-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>237902868</t>
+  </si>
+  <si>
+    <t>Terrible  place to stay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booked two rooms.  My son left to a friends house, room smelled horrible.  We were misled about shuttle.  Dropped us pretty far out Att stadium.  Driver told me they would not pick us up, had already talked  to someone, was told other wise.  If I had known the truth, I would have driven.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r237167014-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>237167014</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r237166920-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>237166920</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r236520261-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>236520261</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>It was absolutely awful!  Dirt, smelly, cockroach infested!!!  The staff was unprofessional.  No service to speak of.  Had to go to the desk for fresh linens and towels!!!!!  I would never recommend this to anyone, except maybe the Department Of Health!!!!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r234637109-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>234637109</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>Not Expensive</t>
+  </si>
+  <si>
+    <t>On a whim my family and I decided to take a weekend vacation to Six Flags as my kids and wife had never been before. I looked online for motels to stay in that were budget friendly as this was not a planned trip. Usually I read reviews on here before booking, but this time I didn’t for some reason – I saw the Days Inn name and I suppose I trusted the name, and because of this motel’s proximity to so many large attractions I just assumed it would be fine. Upon arriving we checked in with no problems, the person who checked us in was of average friendliness, except he did not tell us where our room was – we had to look for it ourselves. 
+When we found the room there was a plastic trash bag tied to a tree outside our room, and the door and trim seemed to be in a bit of disrepair, but I didn’t think much about that. We entered the room with no problem, and flipped the light switch to on, but no lights came on. We tried the lamp in the corner, but it didn’t work, then we tried the lamp on the wall between the beds, but it did not work either. Finally we found a light on the other side of the wall that did work. 
+Once we had light we noticed a huge stain on the curtain,...On a whim my family and I decided to take a weekend vacation to Six Flags as my kids and wife had never been before. I looked online for motels to stay in that were budget friendly as this was not a planned trip. Usually I read reviews on here before booking, but this time I didn’t for some reason – I saw the Days Inn name and I suppose I trusted the name, and because of this motel’s proximity to so many large attractions I just assumed it would be fine. Upon arriving we checked in with no problems, the person who checked us in was of average friendliness, except he did not tell us where our room was – we had to look for it ourselves. When we found the room there was a plastic trash bag tied to a tree outside our room, and the door and trim seemed to be in a bit of disrepair, but I didn’t think much about that. We entered the room with no problem, and flipped the light switch to on, but no lights came on. We tried the lamp in the corner, but it didn’t work, then we tried the lamp on the wall between the beds, but it did not work either. Finally we found a light on the other side of the wall that did work. Once we had light we noticed a huge stain on the curtain, which was unsettling. We decided to unpack a bit, and while we were doing that our kids wanted to watch TV. We tried the remote, but it didn’t work, so we had to use the buttons on the TV. Next we tried to connect to the Wi-Fi but the code in the room did not work, so my wife had to go ask the front desk. Once we got the correct code the Wi-Fi worked great with no problems at all.The AC seemed to work just fine, I noticed a lot of other reviews state they had problems with it, but ours worked well. Keep in mind though we stayed in mid-October, it was not hot outside at all. The fridge in the room worked perfectly – it kept our leftovers very cold, and was clean. The toilet in the room was in a state of disrepair though. The back cover did not fit as it was not the correct cover for the tank. Also the toilet seat was not attached well. One side was lose and if you leaned too far one way or the other it slid and was kind of like a ride at Six Flags, except this one was not safe. We ordered pizza the first night and while we were waiting I decided to look at reviews on this site about this motel. After reading several I was somewhat frightened. It was too late to change really, so we didn’t have much of a choice. Many reviews mention bugs, but we did not see nor were bitten by a single bug. There was a Snickers wrapper on the floor in our room, the vents to the AC were dirty, and the stain on the curtain were the only cleanliness issues. The bedding all seemed to be clean, and room service seemed to do a good job cleaning and restocking  for the second day. After our first night we went to the lobby to take the shuttle to Six Flags. We didn’t get a chance to try the breakfast as we slept in both days. The person at the desk was very friendly. After a few minutes a man came out to take us to the park. I assume he was the owner. Instead of taking the shuttle he drove us in his personal car which was very nice. He dropped us off and told us where we should wait to be picked up, he was very friendly. He said to call about ten to fifteen minutes before we wanted to be picked up, and they would come back.We had a great time at Six Flags and did as we were told, called about 15 minutes before we wanted to be picked up. This was around 9:30 at night after being at the park since it opened. About 15 minutes after we first called, they called back and said the shuttle would be there in about 15 minutes. That was a little longer than we expected, but stood where we were supposed to and kept an eye out for the white shuttle van we had seen at the motel. After nearly an hour had passed we see the owner walking toward us that had dropped us off earlier that day. He had parked about as far away from where we were because there was not really any parking nearby, however we were not expecting him to pick us up in his car again, so we did not notice it when he drove into the park. To his credit he did walk a good distance to find us, he didn’t leave us there. He may have been there a lot sooner and we just didn’t notice. When we got back to the motel he dropped us off in front, and on our way through the lobby I asked the person at the front desk if I could get an extra pillow and he said “sure, I’ll let them know”. We then went on to our room. By this time it was nearing 11:00 at night, we were all cold tired and hungry. When we get to our room the key did not work! We all went back to the office and they told us our keys did not work because we didn’t pay for both nights! At every other hotel/motel I have stayed at they have always charged for the entire stay at the same time – at check in. When we checked in the guy only charged us for one night. Once they charged my card again they re-activated the key and we were able to enter the room. We then ordered pizza again, waited for it, ate and got ready for bed, but no pillow. I just gave up on it and we all went to sleep. After about 20 minutes of being asleep the phone rang. I was closest to it, but I didn’t get awake enough in time to answer it. I didn’t think too much about it and went back to sleep. A few minutes later there was a knock at the door. Then we heard the sound of the door being unlocked, and we started to freak out. My wife was closest to the door and was able to get up in time before anyone came in. They were delivering the pillow. We assume they thought we weren’t there and were just going to leave the pillow for us, but it was quite frightening none the less. The next morning my wife tried to make coffee, but the coffee pot did not work.While we were there we didn’t see any shady characters, and the police were never there as described in other reviews. Everyone we dealt with was nice. There was no noise at all except for the trains. They did wake us up each time one passed, but it was only a couple of times per night. We didn’t go swimming, nor did we try the restaurant. Everything seemed to work out OK for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>On a whim my family and I decided to take a weekend vacation to Six Flags as my kids and wife had never been before. I looked online for motels to stay in that were budget friendly as this was not a planned trip. Usually I read reviews on here before booking, but this time I didn’t for some reason – I saw the Days Inn name and I suppose I trusted the name, and because of this motel’s proximity to so many large attractions I just assumed it would be fine. Upon arriving we checked in with no problems, the person who checked us in was of average friendliness, except he did not tell us where our room was – we had to look for it ourselves. 
+When we found the room there was a plastic trash bag tied to a tree outside our room, and the door and trim seemed to be in a bit of disrepair, but I didn’t think much about that. We entered the room with no problem, and flipped the light switch to on, but no lights came on. We tried the lamp in the corner, but it didn’t work, then we tried the lamp on the wall between the beds, but it did not work either. Finally we found a light on the other side of the wall that did work. 
+Once we had light we noticed a huge stain on the curtain,...On a whim my family and I decided to take a weekend vacation to Six Flags as my kids and wife had never been before. I looked online for motels to stay in that were budget friendly as this was not a planned trip. Usually I read reviews on here before booking, but this time I didn’t for some reason – I saw the Days Inn name and I suppose I trusted the name, and because of this motel’s proximity to so many large attractions I just assumed it would be fine. Upon arriving we checked in with no problems, the person who checked us in was of average friendliness, except he did not tell us where our room was – we had to look for it ourselves. When we found the room there was a plastic trash bag tied to a tree outside our room, and the door and trim seemed to be in a bit of disrepair, but I didn’t think much about that. We entered the room with no problem, and flipped the light switch to on, but no lights came on. We tried the lamp in the corner, but it didn’t work, then we tried the lamp on the wall between the beds, but it did not work either. Finally we found a light on the other side of the wall that did work. Once we had light we noticed a huge stain on the curtain, which was unsettling. We decided to unpack a bit, and while we were doing that our kids wanted to watch TV. We tried the remote, but it didn’t work, so we had to use the buttons on the TV. Next we tried to connect to the Wi-Fi but the code in the room did not work, so my wife had to go ask the front desk. Once we got the correct code the Wi-Fi worked great with no problems at all.The AC seemed to work just fine, I noticed a lot of other reviews state they had problems with it, but ours worked well. Keep in mind though we stayed in mid-October, it was not hot outside at all. The fridge in the room worked perfectly – it kept our leftovers very cold, and was clean. The toilet in the room was in a state of disrepair though. The back cover did not fit as it was not the correct cover for the tank. Also the toilet seat was not attached well. One side was lose and if you leaned too far one way or the other it slid and was kind of like a ride at Six Flags, except this one was not safe. We ordered pizza the first night and while we were waiting I decided to look at reviews on this site about this motel. After reading several I was somewhat frightened. It was too late to change really, so we didn’t have much of a choice. Many reviews mention bugs, but we did not see nor were bitten by a single bug. There was a Snickers wrapper on the floor in our room, the vents to the AC were dirty, and the stain on the curtain were the only cleanliness issues. The bedding all seemed to be clean, and room service seemed to do a good job cleaning and restocking  for the second day. After our first night we went to the lobby to take the shuttle to Six Flags. We didn’t get a chance to try the breakfast as we slept in both days. The person at the desk was very friendly. After a few minutes a man came out to take us to the park. I assume he was the owner. Instead of taking the shuttle he drove us in his personal car which was very nice. He dropped us off and told us where we should wait to be picked up, he was very friendly. He said to call about ten to fifteen minutes before we wanted to be picked up, and they would come back.We had a great time at Six Flags and did as we were told, called about 15 minutes before we wanted to be picked up. This was around 9:30 at night after being at the park since it opened. About 15 minutes after we first called, they called back and said the shuttle would be there in about 15 minutes. That was a little longer than we expected, but stood where we were supposed to and kept an eye out for the white shuttle van we had seen at the motel. After nearly an hour had passed we see the owner walking toward us that had dropped us off earlier that day. He had parked about as far away from where we were because there was not really any parking nearby, however we were not expecting him to pick us up in his car again, so we did not notice it when he drove into the park. To his credit he did walk a good distance to find us, he didn’t leave us there. He may have been there a lot sooner and we just didn’t notice. When we got back to the motel he dropped us off in front, and on our way through the lobby I asked the person at the front desk if I could get an extra pillow and he said “sure, I’ll let them know”. We then went on to our room. By this time it was nearing 11:00 at night, we were all cold tired and hungry. When we get to our room the key did not work! We all went back to the office and they told us our keys did not work because we didn’t pay for both nights! At every other hotel/motel I have stayed at they have always charged for the entire stay at the same time – at check in. When we checked in the guy only charged us for one night. Once they charged my card again they re-activated the key and we were able to enter the room. We then ordered pizza again, waited for it, ate and got ready for bed, but no pillow. I just gave up on it and we all went to sleep. After about 20 minutes of being asleep the phone rang. I was closest to it, but I didn’t get awake enough in time to answer it. I didn’t think too much about it and went back to sleep. A few minutes later there was a knock at the door. Then we heard the sound of the door being unlocked, and we started to freak out. My wife was closest to the door and was able to get up in time before anyone came in. They were delivering the pillow. We assume they thought we weren’t there and were just going to leave the pillow for us, but it was quite frightening none the less. The next morning my wife tried to make coffee, but the coffee pot did not work.While we were there we didn’t see any shady characters, and the police were never there as described in other reviews. Everyone we dealt with was nice. There was no noise at all except for the trains. They did wake us up each time one passed, but it was only a couple of times per night. We didn’t go swimming, nor did we try the restaurant. Everything seemed to work out OK for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r233472301-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>233472301</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>Unfair Treatmeant</t>
+  </si>
+  <si>
+    <t>I was pretty upset due to the fact that I wasn't aware that if you didn't check in at a current time that they would cancel your reservations, even though they were prepaid. My wife and I were in Dallas, Tx. visiting with family that we had not seen in over 15 years and had not realize on it being late. When we made are way to the hotel I had my wife call and got the news that our room had been canceled due to us not checking in at a certain time. I was under the impression that I paid for the rooms about a month ago I should not have to call that I was going to be late since the rooms were prepaid. So this meaning that I had a room saved no matter the situation. So answer me this ? what's the point in reserving rooms if they are not going to hold them for you. I was there for the Cowboys/Texans game, made my way all they way from way down south Texas to experience this even though I was refunded my money but that's not the point.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I was pretty upset due to the fact that I wasn't aware that if you didn't check in at a current time that they would cancel your reservations, even though they were prepaid. My wife and I were in Dallas, Tx. visiting with family that we had not seen in over 15 years and had not realize on it being late. When we made are way to the hotel I had my wife call and got the news that our room had been canceled due to us not checking in at a certain time. I was under the impression that I paid for the rooms about a month ago I should not have to call that I was going to be late since the rooms were prepaid. So this meaning that I had a room saved no matter the situation. So answer me this ? what's the point in reserving rooms if they are not going to hold them for you. I was there for the Cowboys/Texans game, made my way all they way from way down south Texas to experience this even though I was refunded my money but that's not the point.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r232949856-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>232949856</t>
+  </si>
+  <si>
+    <t>10/06/2014</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>Your Review      We had to ask to Change rooms bcuz the door was busted in and wouldn't lock, then the 2nd room had a smoke smell and black on the ceiling from a fire it had before. We didn't have towels, the tv didn't work, no phone. Also my husband went to get breakfast the next day and bcuz he couldn't remember our room number the desk clerk threatened to call the police on him.we had a very bad experience on this visit. We are planning to go again but I don't think we will stay there bcuz it was a waste of our hard earned money. If they would make it right we would be willing to try it out again MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Your Review      We had to ask to Change rooms bcuz the door was busted in and wouldn't lock, then the 2nd room had a smoke smell and black on the ceiling from a fire it had before. We didn't have towels, the tv didn't work, no phone. Also my husband went to get breakfast the next day and bcuz he couldn't remember our room number the desk clerk threatened to call the police on him.we had a very bad experience on this visit. We are planning to go again but I don't think we will stay there bcuz it was a waste of our hard earned money. If they would make it right we would be willing to try it out again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r229466192-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>229466192</t>
+  </si>
+  <si>
+    <t>09/17/2014</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r228196492-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>228196492</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r228175658-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>228175658</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r226743403-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>226743403</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISGUSTING, HORRIBLE </t>
+  </si>
+  <si>
+    <t>Gave us two rooms that where occupied finally got a room that wasn't occupied. Just walking in there I felt dirty. Walked into the restroom had dead bugs and hair in the tub and had bugs alive everywhere. The lights sucked as well as the whole room. Went to go check out the very next morning and while checking out they couldn't even find our reservations. Overall it was NASTY, DISGUSTING &amp; HORRIBLE!!!! They need to honestly shut this Days Inn down!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r226468094-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>226468094</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r226154934-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>226154934</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Awful!</t>
+  </si>
+  <si>
+    <t>First room we were given still had occupants in it.  We returned to the front desk and was given another room.  This one was a king with a foldout instead of 2 queens as reserved.  Not wanting to change rooms again, we decided that the 4 of us ( 1adult - 3 kids)could handle it.  The a/c didn't keep the room cool at all and some lights were out in the room.  Overall, not pleased at all.  We normally just require a nice, clean room to sleep in but this didn't fit those expectations.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r223660463-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>223660463</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>Be Warned!</t>
+  </si>
+  <si>
+    <t>This place is horrible... down right nasty!!  We had 3 rooms booked.  One room had hair on pillows and under blankets.  The lights didn't work in 2nd room and when we finally got a side light to work, there was yuck all over the walls.  The 3rd room had someone else in it.  None of us stayed.  Just a gross place!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r223183123-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>223183123</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r222486017-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>222486017</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>PLEASE READ REVIEWS FIRST</t>
+  </si>
+  <si>
+    <t>What ever you do please read all the reviews first . Our one big mistake we did not read reviews and only looked at pretty pictures and price .    If you want to sleep ... you will not sleep.  Motel located right next to train tracks with constantly blowing horn every thirty minutes mostly at night and early morning .  First thing I notice upon checking in ... notice smell .... cant explain it at all ...... upon entering room very musty smell .... we wanted non smoking but I do think that it was smoking room.  Went to turn on lights only one light worked ..... had to move big heavy beds to plug in all the other lights .  Bathtub was dirty, Because bathroom ceiling was so low ... my tall son hit his arms on the ceiling trying to pull his shirt up over his head . So trying to make the most of our stay .... we left to go see a movie ... while there it began to rain heavily .... when we returned to our room ... our room was LEAKING ... carpet was soaked and wet and some of our stuff was wet  and our room was located on first floor !! The attendants were not concerned about it at all .  Pool was just over sized bathtub to me . Found holes in the walls ...  Breakfast was terrible .    little muffins...What ever you do please read all the reviews first . Our one big mistake we did not read reviews and only looked at pretty pictures and price .    If you want to sleep ... you will not sleep.  Motel located right next to train tracks with constantly blowing horn every thirty minutes mostly at night and early morning .  First thing I notice upon checking in ... notice smell .... cant explain it at all ...... upon entering room very musty smell .... we wanted non smoking but I do think that it was smoking room.  Went to turn on lights only one light worked ..... had to move big heavy beds to plug in all the other lights .  Bathtub was dirty, Because bathroom ceiling was so low ... my tall son hit his arms on the ceiling trying to pull his shirt up over his head . So trying to make the most of our stay .... we left to go see a movie ... while there it began to rain heavily .... when we returned to our room ... our room was LEAKING ... carpet was soaked and wet and some of our stuff was wet  and our room was located on first floor !! The attendants were not concerned about it at all .  Pool was just over sized bathtub to me . Found holes in the walls ...  Breakfast was terrible .    little muffins , stale cereal , and warm milk . We will most definitely will not be back. Vents in air conditioner were broken ......  nightmare ... Also was afraid to sleep under the sheets so we slept on top of bedspread with our on blanketsMoreShow less</t>
+  </si>
+  <si>
+    <t>What ever you do please read all the reviews first . Our one big mistake we did not read reviews and only looked at pretty pictures and price .    If you want to sleep ... you will not sleep.  Motel located right next to train tracks with constantly blowing horn every thirty minutes mostly at night and early morning .  First thing I notice upon checking in ... notice smell .... cant explain it at all ...... upon entering room very musty smell .... we wanted non smoking but I do think that it was smoking room.  Went to turn on lights only one light worked ..... had to move big heavy beds to plug in all the other lights .  Bathtub was dirty, Because bathroom ceiling was so low ... my tall son hit his arms on the ceiling trying to pull his shirt up over his head . So trying to make the most of our stay .... we left to go see a movie ... while there it began to rain heavily .... when we returned to our room ... our room was LEAKING ... carpet was soaked and wet and some of our stuff was wet  and our room was located on first floor !! The attendants were not concerned about it at all .  Pool was just over sized bathtub to me . Found holes in the walls ...  Breakfast was terrible .    little muffins...What ever you do please read all the reviews first . Our one big mistake we did not read reviews and only looked at pretty pictures and price .    If you want to sleep ... you will not sleep.  Motel located right next to train tracks with constantly blowing horn every thirty minutes mostly at night and early morning .  First thing I notice upon checking in ... notice smell .... cant explain it at all ...... upon entering room very musty smell .... we wanted non smoking but I do think that it was smoking room.  Went to turn on lights only one light worked ..... had to move big heavy beds to plug in all the other lights .  Bathtub was dirty, Because bathroom ceiling was so low ... my tall son hit his arms on the ceiling trying to pull his shirt up over his head . So trying to make the most of our stay .... we left to go see a movie ... while there it began to rain heavily .... when we returned to our room ... our room was LEAKING ... carpet was soaked and wet and some of our stuff was wet  and our room was located on first floor !! The attendants were not concerned about it at all .  Pool was just over sized bathtub to me . Found holes in the walls ...  Breakfast was terrible .    little muffins , stale cereal , and warm milk . We will most definitely will not be back. Vents in air conditioner were broken ......  nightmare ... Also was afraid to sleep under the sheets so we slept on top of bedspread with our on blanketsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r219497647-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>219497647</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>Nasty azz hell</t>
+  </si>
+  <si>
+    <t>This was the worst i have ever stay at i wouldn't even call a hotel thd keys never worked thd housekeeping we never saw and nothing in our room work.don't let me start on what that breakfast was i wouldn't want anyone wasting there money here......</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r218825376-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>218825376</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r218151470-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>218151470</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>Don't, just don't</t>
+  </si>
+  <si>
+    <t>I went with this hotel because of the price and amenities. Not worth the savings. Continental breakfast consisted of muffins and stale cereal. The "shuttle" service is a van with no air conditioning, and an annoyed driver that may not even show up. The best part about the room was the water pressure in the shower. The bed was hard, extra pillows were hard to come by. After one day, the key did not work and had to be fixed. Bathroom door did not lock. A train constantly came by blowing the horn. There are a lot of other properties in the area, go with one of them. The only reason it gets one star is because zero stars is not an option.MoreShow less</t>
+  </si>
+  <si>
+    <t>I went with this hotel because of the price and amenities. Not worth the savings. Continental breakfast consisted of muffins and stale cereal. The "shuttle" service is a van with no air conditioning, and an annoyed driver that may not even show up. The best part about the room was the water pressure in the shower. The bed was hard, extra pillows were hard to come by. After one day, the key did not work and had to be fixed. Bathroom door did not lock. A train constantly came by blowing the horn. There are a lot of other properties in the area, go with one of them. The only reason it gets one star is because zero stars is not an option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r217070305-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>217070305</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r214600725-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>214600725</t>
+  </si>
+  <si>
+    <t>07/09/2014</t>
+  </si>
+  <si>
+    <t>Worst hotel ever</t>
+  </si>
+  <si>
+    <t>Hotel was anything but clean. It was filthy.  There are at least ten train tracks maybe 50 yards from front doors of rooms. Trains came by all night frequently.......almost constantly. Door to room was almost inoperable. Keys to rooms never worked more than once. So trips were made frequently to the front office where they acted as if it were our fault the doors were not working. The free breakfast was a JOKE. This place is HORRIBLE. We had two rooms and both were equaly nasty.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r213820175-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>213820175</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>out dated hotel!</t>
+  </si>
+  <si>
+    <t>The lady at the front desk was really nice, but the hotel in general was horrible. Our tv went out and the maintance man came to check why the tv stopped working. Told us that he had to switch the tv out with another room but never came back. The rate was decent but the heat smelled like burning wood. The sink was stopped up and water wouldn't go down. Some of the outlets didn't work and the refrigerator did not get cold. The water in the shower got extremely hot while already in the shower. We barely got towels and when they cleaned they only took out the trash. The train ran all night long and it was so loudMoreShow less</t>
+  </si>
+  <si>
+    <t>The lady at the front desk was really nice, but the hotel in general was horrible. Our tv went out and the maintance man came to check why the tv stopped working. Told us that he had to switch the tv out with another room but never came back. The rate was decent but the heat smelled like burning wood. The sink was stopped up and water wouldn't go down. Some of the outlets didn't work and the refrigerator did not get cold. The water in the shower got extremely hot while already in the shower. We barely got towels and when they cleaned they only took out the trash. The train ran all night long and it was so loudMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r213074968-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>213074968</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r210826438-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>210826438</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r209892432-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>209892432</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r201737773-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>201737773</t>
+  </si>
+  <si>
+    <t>04/18/2014</t>
+  </si>
+  <si>
+    <t>Day Stay</t>
+  </si>
+  <si>
+    <t>Evidently Days Inn does not audit or review their properties because this property is in need of a serious make over. From the front office which is extremely used and appears to be vintage 60's to the rooms which has holes in the wall and carpet coming off the floor to chipped and rusted bath tubs and sinks. Until this property is fully renovated and guaranteed stay as far away from this as you can!!!!!</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r197532519-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>197532519</t>
+  </si>
+  <si>
+    <t>03/15/2014</t>
+  </si>
+  <si>
+    <t>Great motel</t>
+  </si>
+  <si>
+    <t>We stayed here during a 2 week trip to Florida.  The room was very good - comfy bed, everything was clean and everything worked OK.  The breakfast is basic but OK.  We ate at the Mexican restaurant attached to the motel - it is EXCELLENT.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r196629208-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>196629208</t>
+  </si>
+  <si>
+    <t>03/08/2014</t>
+  </si>
+  <si>
+    <t>Splendid</t>
+  </si>
+  <si>
+    <t>The staff was very professional &amp; obtained great customer service. The girls on housekeeping duty was just great. My room was very clean and bug free. I enjoyed the breakfast, and had good night sleep. Would i stay again?  That's not even a question. Definitely!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r196236524-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>196236524</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r189893411-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>189893411</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>Dallas Cowboys game 12/29</t>
+  </si>
+  <si>
+    <t>I got my husband Cowboy tickets for christmas and I booked two nites at the Days in Arlington.  The stay was good there was a shuttle to and from the game which was awesome we did not have to drive in that traffic!!  The rooms were nice new curtians and bedding. We enjoyed our stay and would definetly stay there again.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r189799594-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>189799594</t>
+  </si>
+  <si>
+    <t>01/05/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r186667471-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>186667471</t>
+  </si>
+  <si>
+    <t>12/03/2013</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here!!</t>
+  </si>
+  <si>
+    <t>The motel was close to the stadium, that is the ONLY plus.  We did not feel safe at all at this hotel.  There was a fight between to women outside and late at night a man was selling meat out of the back of his truck, weird.  The room next to us was doing interviews for drivers so people were coming and going constantly.  Beds had no bugs, only the shower.  Spend a little extra cash and stay some place else,  its not worth risking your life.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r186581203-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>186581203</t>
+  </si>
+  <si>
+    <t>12/02/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r185254860-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>185254860</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r183402787-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>183402787</t>
+  </si>
+  <si>
+    <t>11/03/2013</t>
+  </si>
+  <si>
+    <t>Not my first choice</t>
+  </si>
+  <si>
+    <t>The gaping hole where the refrigerator should have been was our first hint. There were holes in the ceiling from what I can only assume was a leak. My husband is handicapped (wears a leg prosthetic) and our room was on the second floor, there were no elevators or ramps to the second floor. Isn't that a violation of the Disabilities Act? The bathroom wasn't as clean as it could have been (hair on the floor and toothpaste spots on the sink faucet). If you want to go to bed early, are a light sleeper, or want to sleep late -don't stay here. The train that runs in front of the hotel (and I mean IN FRONT) will sound off its horn until 23:00 (11 pm) and starts up again at 06:00 am. Continental breakfast is a choice of oatmeal, bite size muffins, toast or cereal. However, there is a decent restaurant attached to the hotel. I can honestly say that the only saving grace for this hotel is that the staffing are courteous and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>The gaping hole where the refrigerator should have been was our first hint. There were holes in the ceiling from what I can only assume was a leak. My husband is handicapped (wears a leg prosthetic) and our room was on the second floor, there were no elevators or ramps to the second floor. Isn't that a violation of the Disabilities Act? The bathroom wasn't as clean as it could have been (hair on the floor and toothpaste spots on the sink faucet). If you want to go to bed early, are a light sleeper, or want to sleep late -don't stay here. The train that runs in front of the hotel (and I mean IN FRONT) will sound off its horn until 23:00 (11 pm) and starts up again at 06:00 am. Continental breakfast is a choice of oatmeal, bite size muffins, toast or cereal. However, there is a decent restaurant attached to the hotel. I can honestly say that the only saving grace for this hotel is that the staffing are courteous and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r182279334-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>182279334</t>
+  </si>
+  <si>
+    <t>10/24/2013</t>
+  </si>
+  <si>
+    <t>Outstanding Personal Service &amp; Shuttle</t>
+  </si>
+  <si>
+    <t>Hotel was very, very helpful in getting me to my conference and back to Hotel in a timely manner.  They were outstanding in my shuttle service, I didn't have to wait on them over 10 minutes after calling for service.  Very Friendly and Personal Service.  Any thing I requested was promptly taken care of.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Andy M, Manager at Rodeway Inn, responded to this reviewResponded October 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2013</t>
+  </si>
+  <si>
+    <t>Hotel was very, very helpful in getting me to my conference and back to Hotel in a timely manner.  They were outstanding in my shuttle service, I didn't have to wait on them over 10 minutes after calling for service.  Very Friendly and Personal Service.  Any thing I requested was promptly taken care of.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r182002350-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>182002350</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>I would advise people to spend an extra 20 dollars and go to another hotel!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst hotel ever!!!! This hotel is dirty and old! The beds and pillows are hard! The train goes by every 5 minutes and honks its horn all hours of the day and night! The walls are paper thin and u can hear everything going on in the next room. My family and I take a lot of weekend trips and always go on a budget but next time I'll spend an extra 20 dollars for a hotel! Would only recommend this hotel to hookers and crack heads!!!   </t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r180461287-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>180461287</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>Only as a last resort</t>
+  </si>
+  <si>
+    <t>I would only stay here as a last resort. The room smelled musty and the pillow case and towels were stained!   MoreShow less</t>
+  </si>
+  <si>
+    <t>Andy M, Manager at Rodeway Inn, responded to this reviewResponded October 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2013</t>
+  </si>
+  <si>
+    <t>I would only stay here as a last resort. The room smelled musty and the pillow case and towels were stained!   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r179761468-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>179761468</t>
+  </si>
+  <si>
+    <t>10/04/2013</t>
+  </si>
+  <si>
+    <t>Will not stay at this Days Inn again. Half of the equipment...</t>
+  </si>
+  <si>
+    <t>Will not stay at this Days Inn again. Half of the equipment within the motel did not work. Doors, lights, hot tub, TV. Breakfast was a choice of  two types of dry cereal and two types of bread.MoreShow less</t>
+  </si>
+  <si>
+    <t>Will not stay at this Days Inn again. Half of the equipment within the motel did not work. Doors, lights, hot tub, TV. Breakfast was a choice of  two types of dry cereal and two types of bread.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r179507402-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>179507402</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>Terrible motel</t>
+  </si>
+  <si>
+    <t>This was probably my worst experience ever at a motel. The room was filthy, the clerk did not speak English very well, and our room door was broken. Furthermore, there was train track across from the motel. The clerk, after a lot of repeating himself so we could understand, said that we wouldn't notice the train in the back of the property where our room was. That was definitely not true. I would recommend staying in your car before paying money to this place.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r172391832-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>172391832</t>
+  </si>
+  <si>
+    <t>08/15/2013</t>
+  </si>
+  <si>
+    <t>Not as good</t>
+  </si>
+  <si>
+    <t>Not as good since electric plugs not working eventhose the lamps not turn on and the bathtub is peeling off .   Too much noise walk pass so try to sleep at night.  The foods for breakfast not enough and make me sick and been sick for two days.MoreShow less</t>
+  </si>
+  <si>
+    <t>Andy M, Manager at Rodeway Inn, responded to this reviewResponded September 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2013</t>
+  </si>
+  <si>
+    <t>Not as good since electric plugs not working eventhose the lamps not turn on and the bathtub is peeling off .   Too much noise walk pass so try to sleep at night.  The foods for breakfast not enough and make me sick and been sick for two days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r172113708-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>172113708</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>Andy M, Manager at Rodeway Inn, responded to this reviewResponded September 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r171399553-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>171399553</t>
+  </si>
+  <si>
+    <t>08/08/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r169875377-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>169875377</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r167808120-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>167808120</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>Excellent value for money</t>
+  </si>
+  <si>
+    <t>I stayed on 16-Jul 2013. Found the room, microwave +fridge facilities in room and free breakfast excellent. free Internet speed in room was 5 mbps. Very quite and clean area. will like to come here again. best hotel in the area for self driven vehicles.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r166958806-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>166958806</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r164707453-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>164707453</t>
+  </si>
+  <si>
+    <t>06/21/2013</t>
+  </si>
+  <si>
+    <t>Not too shabby</t>
+  </si>
+  <si>
+    <t>The rooms where in decent xondition .  It is located in an industrial area and very close to a train tracks that is busy all night long. Was told that they are under new management and working on upgrading to new carpets and furniture.  Overall good service and experience</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r164239834-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>164239834</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>Our stay was very nice. The staff and housekeeping and...</t>
+  </si>
+  <si>
+    <t>Our stay was very nice. The staff and housekeeping and maintenance personnel were very friendly and always helpful. The only issue we had was the rooms were too high priced.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r164217246-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>164217246</t>
+  </si>
+  <si>
+    <t>06/16/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r160408385-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>160408385</t>
+  </si>
+  <si>
+    <t>05/11/2013</t>
+  </si>
+  <si>
+    <t>What a wonderful day I had.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent location, nice clean rooms and excellent customer service. The Days Inn offers any facility you need for a pleasant and comfy stay: clean and spacious rooms with free wifi, a swimming pool with ample space to relax in the pool area, a childrens' playground and a friendly and large lobby. Breakfast is served from 7:00 a. m. The coffee is excellent, and the breakfast buffet offers everything for a great day to start your activities in the Arlington area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r159720844-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>159720844</t>
+  </si>
+  <si>
+    <t>05/05/2013</t>
+  </si>
+  <si>
+    <t>An excellent location</t>
+  </si>
+  <si>
+    <t>An excellent location.All the major attractions in Arlington (e. g. Six Flags Over Texas, Dallas Cowboy Stadium, Baseball Stadium – home of the Rexas Rangers) are easy to reach, even in a walking distance. Or it takes no longer than 10 minutes by car (provided any traffic light is red !) Though the Arlington Shopping Mall 100 m away from the Days Inn is closed now you will find a WalMart adjacent to the Dallas Cowboys Stadium.Don't bother about the railway line on the opposite street. Sometimes there are locomotives blowing their horns even at night, but after a whole day full of new impressions and activities you feel so tired that you overhear the noise. The Days Inn offers any facility you need for a pleasant and comfy stay: clean and spacious rooms with free wifi, a swimming pool with ample space to relax in the pool area, a childrens' playground and a friendly and large lobby. Breakfast is served from 7:00 a. m. The coffee is excellent, and the breakfast buffet offers everything for a great day to start your activities in the Arlington area. Very friendly and helpful staff. During my stay (5 nights)  I enjoyed the evenings in the lobby to talk to the friendly staff members.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>An excellent location.All the major attractions in Arlington (e. g. Six Flags Over Texas, Dallas Cowboy Stadium, Baseball Stadium – home of the Rexas Rangers) are easy to reach, even in a walking distance. Or it takes no longer than 10 minutes by car (provided any traffic light is red !) Though the Arlington Shopping Mall 100 m away from the Days Inn is closed now you will find a WalMart adjacent to the Dallas Cowboys Stadium.Don't bother about the railway line on the opposite street. Sometimes there are locomotives blowing their horns even at night, but after a whole day full of new impressions and activities you feel so tired that you overhear the noise. The Days Inn offers any facility you need for a pleasant and comfy stay: clean and spacious rooms with free wifi, a swimming pool with ample space to relax in the pool area, a childrens' playground and a friendly and large lobby. Breakfast is served from 7:00 a. m. The coffee is excellent, and the breakfast buffet offers everything for a great day to start your activities in the Arlington area. Very friendly and helpful staff. During my stay (5 nights)  I enjoyed the evenings in the lobby to talk to the friendly staff members.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r156308033-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>156308033</t>
+  </si>
+  <si>
+    <t>04/01/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r153882446-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>153882446</t>
+  </si>
+  <si>
+    <t>03/06/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r146594092-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>146594092</t>
+  </si>
+  <si>
+    <t>12/01/2012</t>
+  </si>
+  <si>
+    <t>Run Away!</t>
+  </si>
+  <si>
+    <t>This is like a hookers hotel without the hookers. The carpet is terrible and rooms smell.  A freaking freight train blows through here whisteling all night long passing through traffic.. Ugh... no sleep!  Run away! Ever watched my cousin Vinny movie? Thats nothing compared to this. . Very dirty!  I wouldn't bring a dirty skank in this room, thats how bad it is..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r142852780-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>142852780</t>
+  </si>
+  <si>
+    <t>10/15/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r142157939-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>142157939</t>
+  </si>
+  <si>
+    <t>10/06/2012</t>
+  </si>
+  <si>
+    <t>not very good</t>
+  </si>
+  <si>
+    <t>the room stank from a musty smell the stink stayed on my belonging for 2-3 days after i left  dont stay it is bad</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r142021277-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>142021277</t>
+  </si>
+  <si>
+    <t>10/04/2012</t>
+  </si>
+  <si>
+    <t>Dirty and worst staff ever.</t>
+  </si>
+  <si>
+    <t>Worst staff ever, they wont help you in any possible way.  They didint clean out room two nights in a row.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r142019741-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>142019741</t>
+  </si>
+  <si>
+    <t>Clean rooms and lobby</t>
+  </si>
+  <si>
+    <t>Cleaner rooms. Clean behind the sofa and under the dressers and night stands.  Lobby had cracks in the walls and paint was chipping off.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r132085398-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>132085398</t>
+  </si>
+  <si>
+    <t>06/16/2012</t>
+  </si>
+  <si>
+    <t>Never ever ever ever again</t>
+  </si>
+  <si>
+    <t>Was du,mped here by American Airlines after an overnight flight delay. Took 3 rooms to get one clean enough I could stand and even then the smell was overwhelming.  When I finally closed my eyes and almost slept a FREIGHT TRAIN came thundering through loud whistle and all.  Just overall a lousy miserable experience.  Wull take the cots at the airport next time - they are cleaner.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r132058757-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>132058757</t>
+  </si>
+  <si>
+    <t>06/15/2012</t>
+  </si>
+  <si>
+    <t>The hotel was cheap, but you get what you pay for.</t>
+  </si>
+  <si>
+    <t>The pool was dirty with leaves and trash. The hot tub was even more dirty and the water had a bad odor. The hotel is run down and right next to the train tracks. I planned on eating the continental breakfast  provided,  however it consisted of cherrios or cornflakes and bad coffee. I also planned on using the shuttle provided by the hotel, but when i asked about it, no one working the front desk could understand english. So we ended up having to pay to park everywhere.  The coffee pot was broken, the bathroom door wouldn't stay shut.....need I say more</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r130746437-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>130746437</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>Wouldn't go back</t>
+  </si>
+  <si>
+    <t>It was across the street from the train tracks. Trains going through asll night. there was no microwave, no refrigerator and the clock and coffee maker didn't work. The breakfast wasnt great either.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r120213793-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>120213793</t>
+  </si>
+  <si>
+    <t>11/05/2011</t>
+  </si>
+  <si>
+    <t>Scum of the Earth</t>
+  </si>
+  <si>
+    <t>Dirty, This is what I think of this disgusting Rodent infested ghetto place. We stayed here due to at the time there was an NFL and NBA game going and all places were booked. We booked four rooms for two nights and were only provided with three rooms for one night. Spend an average of three hours getting the mess straighten out and finally got a fourth room of which was filthy with rodent droppings in the tub and on the bed sheets and the outlets and AC did not work. We’re informed they were booked and did not have any more rooms. When I went back to complain they offered keys to three other rooms to pick from of which the only good thing good about them was the AC and outlets worked but were still as filthy as the others. My iPhone was fried while I plugged it into the outlet to get charged and while a complain was turned in to management they could care less stating they were in the process of bankruptcy and there was nothing they could do about it. Informed management that I was reporting then to the Better Business Bureau and to the Health Department and management response was OH-WELL. We would have been better off staying in our cars.  The restaurant was also filthy with roaches running around. So if you plan to stay there Good-Luck. Oh and the pool was...Dirty, This is what I think of this disgusting Rodent infested ghetto place. We stayed here due to at the time there was an NFL and NBA game going and all places were booked. We booked four rooms for two nights and were only provided with three rooms for one night. Spend an average of three hours getting the mess straighten out and finally got a fourth room of which was filthy with rodent droppings in the tub and on the bed sheets and the outlets and AC did not work. We’re informed they were booked and did not have any more rooms. When I went back to complain they offered keys to three other rooms to pick from of which the only good thing good about them was the AC and outlets worked but were still as filthy as the others. My iPhone was fried while I plugged it into the outlet to get charged and while a complain was turned in to management they could care less stating they were in the process of bankruptcy and there was nothing they could do about it. Informed management that I was reporting then to the Better Business Bureau and to the Health Department and management response was OH-WELL. We would have been better off staying in our cars.  The restaurant was also filthy with roaches running around. So if you plan to stay there Good-Luck. Oh and the pool was about half full of water with all kinds of stuff in it.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Dirty, This is what I think of this disgusting Rodent infested ghetto place. We stayed here due to at the time there was an NFL and NBA game going and all places were booked. We booked four rooms for two nights and were only provided with three rooms for one night. Spend an average of three hours getting the mess straighten out and finally got a fourth room of which was filthy with rodent droppings in the tub and on the bed sheets and the outlets and AC did not work. We’re informed they were booked and did not have any more rooms. When I went back to complain they offered keys to three other rooms to pick from of which the only good thing good about them was the AC and outlets worked but were still as filthy as the others. My iPhone was fried while I plugged it into the outlet to get charged and while a complain was turned in to management they could care less stating they were in the process of bankruptcy and there was nothing they could do about it. Informed management that I was reporting then to the Better Business Bureau and to the Health Department and management response was OH-WELL. We would have been better off staying in our cars.  The restaurant was also filthy with roaches running around. So if you plan to stay there Good-Luck. Oh and the pool was...Dirty, This is what I think of this disgusting Rodent infested ghetto place. We stayed here due to at the time there was an NFL and NBA game going and all places were booked. We booked four rooms for two nights and were only provided with three rooms for one night. Spend an average of three hours getting the mess straighten out and finally got a fourth room of which was filthy with rodent droppings in the tub and on the bed sheets and the outlets and AC did not work. We’re informed they were booked and did not have any more rooms. When I went back to complain they offered keys to three other rooms to pick from of which the only good thing good about them was the AC and outlets worked but were still as filthy as the others. My iPhone was fried while I plugged it into the outlet to get charged and while a complain was turned in to management they could care less stating they were in the process of bankruptcy and there was nothing they could do about it. Informed management that I was reporting then to the Better Business Bureau and to the Health Department and management response was OH-WELL. We would have been better off staying in our cars.  The restaurant was also filthy with roaches running around. So if you plan to stay there Good-Luck. Oh and the pool was about half full of water with all kinds of stuff in it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r117603046-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>117603046</t>
+  </si>
+  <si>
+    <t>09/02/2011</t>
+  </si>
+  <si>
+    <t>Aweful place and worse service</t>
+  </si>
+  <si>
+    <t>The manager was awful. Took us 4 hours to get into our room. We got a knock in the middle of the night from a pimp asking for his lady friend. We left and never got a refund. Stay away!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r117155612-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>117155612</t>
+  </si>
+  <si>
+    <t>08/23/2011</t>
+  </si>
+  <si>
+    <t>AWFUL MOTEL - AWFUL STAFF</t>
+  </si>
+  <si>
+    <t>We traveled there on a vacation trip to go to 6 flags
+1. Their free shuttle to 6 flags is a scam and doesn't run.
+2. Rude front clerk said we didn't have a reservation with Priceline.
+3. Rude front clerk ignored us for 10 minutes after throwing back our priceline reservation to us, more worried about joking on the phone in some language than trying to help us figure out why the reservation didn't go through.
+4. After we proved him we did have a reservation with Priceline, Rude front clerk yelled at us "why did you give the wrong name?". The wrong name in question was the name under which the reservation had actually been made. Rude front clerk was just looking at the BILLING name instead... When I confronted Rude front clerk about the fact that he was just being plain rude, rude front clerk said he wasn't. 
+5. Rude front clerk gave us a key to a room with cockroaches in the sink and spiders in the bath tub.
+6. We realized rude front clerk had not taken my card for verification purposes but actually charged us A SECOND TIME, even though we had paid through priceline.
+7. When we confronted rude front clerk about it, he said that priceline had not paid them and that we needed to call priceline for our money back. The money is still not back a week after.
+Bottomline of...We traveled there on a vacation trip to go to 6 flags1. Their free shuttle to 6 flags is a scam and doesn't run.2. Rude front clerk said we didn't have a reservation with Priceline.3. Rude front clerk ignored us for 10 minutes after throwing back our priceline reservation to us, more worried about joking on the phone in some language than trying to help us figure out why the reservation didn't go through.4. After we proved him we did have a reservation with Priceline, Rude front clerk yelled at us "why did you give the wrong name?". The wrong name in question was the name under which the reservation had actually been made. Rude front clerk was just looking at the BILLING name instead... When I confronted Rude front clerk about the fact that he was just being plain rude, rude front clerk said he wasn't. 5. Rude front clerk gave us a key to a room with cockroaches in the sink and spiders in the bath tub.6. We realized rude front clerk had not taken my card for verification purposes but actually charged us A SECOND TIME, even though we had paid through priceline.7. When we confronted rude front clerk about it, he said that priceline had not paid them and that we needed to call priceline for our money back. The money is still not back a week after.Bottomline of the story : The worst hotel staff we've ever had to deal with. They need to be fired.  Add to this that the hotel is by a railway with extremely loud trains all night...MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>We traveled there on a vacation trip to go to 6 flags
+1. Their free shuttle to 6 flags is a scam and doesn't run.
+2. Rude front clerk said we didn't have a reservation with Priceline.
+3. Rude front clerk ignored us for 10 minutes after throwing back our priceline reservation to us, more worried about joking on the phone in some language than trying to help us figure out why the reservation didn't go through.
+4. After we proved him we did have a reservation with Priceline, Rude front clerk yelled at us "why did you give the wrong name?". The wrong name in question was the name under which the reservation had actually been made. Rude front clerk was just looking at the BILLING name instead... When I confronted Rude front clerk about the fact that he was just being plain rude, rude front clerk said he wasn't. 
+5. Rude front clerk gave us a key to a room with cockroaches in the sink and spiders in the bath tub.
+6. We realized rude front clerk had not taken my card for verification purposes but actually charged us A SECOND TIME, even though we had paid through priceline.
+7. When we confronted rude front clerk about it, he said that priceline had not paid them and that we needed to call priceline for our money back. The money is still not back a week after.
+Bottomline of...We traveled there on a vacation trip to go to 6 flags1. Their free shuttle to 6 flags is a scam and doesn't run.2. Rude front clerk said we didn't have a reservation with Priceline.3. Rude front clerk ignored us for 10 minutes after throwing back our priceline reservation to us, more worried about joking on the phone in some language than trying to help us figure out why the reservation didn't go through.4. After we proved him we did have a reservation with Priceline, Rude front clerk yelled at us "why did you give the wrong name?". The wrong name in question was the name under which the reservation had actually been made. Rude front clerk was just looking at the BILLING name instead... When I confronted Rude front clerk about the fact that he was just being plain rude, rude front clerk said he wasn't. 5. Rude front clerk gave us a key to a room with cockroaches in the sink and spiders in the bath tub.6. We realized rude front clerk had not taken my card for verification purposes but actually charged us A SECOND TIME, even though we had paid through priceline.7. When we confronted rude front clerk about it, he said that priceline had not paid them and that we needed to call priceline for our money back. The money is still not back a week after.Bottomline of the story : The worst hotel staff we've ever had to deal with. They need to be fired.  Add to this that the hotel is by a railway with extremely loud trains all night...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r115201664-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>115201664</t>
+  </si>
+  <si>
+    <t>07/09/2011</t>
+  </si>
+  <si>
+    <t>Old motel in need of repairs!</t>
+  </si>
+  <si>
+    <t>VERY OLD motel in need of repairs!! Shower knob fell off went I went to use it. The toilet didn't flush all the time. Ice machine was empty most of the time, and the other one was broke. Motel is RIGHT across the street from railroad tracks, train is very loud and comes through often, all hours. Didn't sleep well at all. DO NOT rely on the shuttle.... the maintenance is the driver, and if he's busy, you will have to wait where you are! Lady at front desk was VERY rude, doesn't seem to care about the customers. Parking sucks!! Not much space for parking. The only thing I liked about my stay was the maintenance man being so helpful!! He was a really nice guy!! I saw others reviews where they stated there were bed bugs. I did search, and didn't see signs of any, thankfully!  I will not be back to stay. Motel 6 would have been a better stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>VERY OLD motel in need of repairs!! Shower knob fell off went I went to use it. The toilet didn't flush all the time. Ice machine was empty most of the time, and the other one was broke. Motel is RIGHT across the street from railroad tracks, train is very loud and comes through often, all hours. Didn't sleep well at all. DO NOT rely on the shuttle.... the maintenance is the driver, and if he's busy, you will have to wait where you are! Lady at front desk was VERY rude, doesn't seem to care about the customers. Parking sucks!! Not much space for parking. The only thing I liked about my stay was the maintenance man being so helpful!! He was a really nice guy!! I saw others reviews where they stated there were bed bugs. I did search, and didn't see signs of any, thankfully!  I will not be back to stay. Motel 6 would have been a better stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r115199380-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>115199380</t>
+  </si>
+  <si>
+    <t>A stay from HELL</t>
+  </si>
+  <si>
+    <t>This was suppose to be a weekend away with friends, but turned into a stay in hell. we checked into our hotel and things seemed alright. just another cheap hotel. the manager was extremely nice. he gave us a ride to 6 flags in his car because the shuttle driver was in dallas. when we were ready to come home i called the hotel 5 or 6 times, with no answer. with the help of guest services at 6 flags they got a hold of the desk clerk, who told us we either have to pay for a taxi or wait till the shuttle was back from dallas and then hung up the phone on me. needless to say we got the taxi. by this point we were livid. when we got back to the hotel we were ready to leave, but trying to reason with the clerk was impossible. she was RUDE, didnt speak english,and constantly interupted. she promised the manager would pay for the taxi the next day....TAXIS DONT WORK THAT WAY. she told us that we couldnt get our money back for our nights, since we wanted to leave, and app. it stated in the contract that we couldnt get our money back which was a lie the contract said nothing of the sort. after trying to reason with her she decided to call the cops on us for doing nothing!!! my friends and i were not...This was suppose to be a weekend away with friends, but turned into a stay in hell. we checked into our hotel and things seemed alright. just another cheap hotel. the manager was extremely nice. he gave us a ride to 6 flags in his car because the shuttle driver was in dallas. when we were ready to come home i called the hotel 5 or 6 times, with no answer. with the help of guest services at 6 flags they got a hold of the desk clerk, who told us we either have to pay for a taxi or wait till the shuttle was back from dallas and then hung up the phone on me. needless to say we got the taxi. by this point we were livid. when we got back to the hotel we were ready to leave, but trying to reason with the clerk was impossible. she was RUDE, didnt speak english,and constantly interupted. she promised the manager would pay for the taxi the next day....TAXIS DONT WORK THAT WAY. she told us that we couldnt get our money back for our nights, since we wanted to leave, and app. it stated in the contract that we couldnt get our money back which was a lie the contract said nothing of the sort. after trying to reason with her she decided to call the cops on us for doing nothing!!! my friends and i were not treated like guests and i would not recommend staying at this hotel......EVER!!!P.S if you do decide to stay dont expect sleep, although we didnt find bed bugs there was train after train after train going by blowing a VERY loud whistle!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was suppose to be a weekend away with friends, but turned into a stay in hell. we checked into our hotel and things seemed alright. just another cheap hotel. the manager was extremely nice. he gave us a ride to 6 flags in his car because the shuttle driver was in dallas. when we were ready to come home i called the hotel 5 or 6 times, with no answer. with the help of guest services at 6 flags they got a hold of the desk clerk, who told us we either have to pay for a taxi or wait till the shuttle was back from dallas and then hung up the phone on me. needless to say we got the taxi. by this point we were livid. when we got back to the hotel we were ready to leave, but trying to reason with the clerk was impossible. she was RUDE, didnt speak english,and constantly interupted. she promised the manager would pay for the taxi the next day....TAXIS DONT WORK THAT WAY. she told us that we couldnt get our money back for our nights, since we wanted to leave, and app. it stated in the contract that we couldnt get our money back which was a lie the contract said nothing of the sort. after trying to reason with her she decided to call the cops on us for doing nothing!!! my friends and i were not...This was suppose to be a weekend away with friends, but turned into a stay in hell. we checked into our hotel and things seemed alright. just another cheap hotel. the manager was extremely nice. he gave us a ride to 6 flags in his car because the shuttle driver was in dallas. when we were ready to come home i called the hotel 5 or 6 times, with no answer. with the help of guest services at 6 flags they got a hold of the desk clerk, who told us we either have to pay for a taxi or wait till the shuttle was back from dallas and then hung up the phone on me. needless to say we got the taxi. by this point we were livid. when we got back to the hotel we were ready to leave, but trying to reason with the clerk was impossible. she was RUDE, didnt speak english,and constantly interupted. she promised the manager would pay for the taxi the next day....TAXIS DONT WORK THAT WAY. she told us that we couldnt get our money back for our nights, since we wanted to leave, and app. it stated in the contract that we couldnt get our money back which was a lie the contract said nothing of the sort. after trying to reason with her she decided to call the cops on us for doing nothing!!! my friends and i were not treated like guests and i would not recommend staying at this hotel......EVER!!!P.S if you do decide to stay dont expect sleep, although we didnt find bed bugs there was train after train after train going by blowing a VERY loud whistle!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r115056120-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>115056120</t>
+  </si>
+  <si>
+    <t>07/05/2011</t>
+  </si>
+  <si>
+    <t>Lady at front desk RUDE!</t>
+  </si>
+  <si>
+    <t>My family/I stayed at this hotel before and at one time it was great.  We checked in on July 2 and stayed 2 nights.  During our check in the lady at the front desk was rude.  I called down to let her know that I didn't have enough towels. She gave me maid service number and told me to call them.  The next morning my son and I went down to breakfast, I stopped at the desk she was going off on a customer.  I asked her where the breakfast room was, she rolled her eyes and kept walking. The next morning, at check out I asked for a receipt and she didn't want to really give me one.  I couldn't hold it any longer and let her have it.  The men that work at the hotel was fine! HARJINDER KABARWAI (the lady) needs to be removed from the front desk and put behind the scenes.  My rooms were not the best, I can put up with the train blowing all night but rudeness no!  I had 4 rooms in this place (RM 216, 214, 218, &amp; 207). If you want to contact me the hotel has my information. At $55.00 a night you get what you pay for.  Angela PalmerMoreShow less</t>
+  </si>
+  <si>
+    <t>My family/I stayed at this hotel before and at one time it was great.  We checked in on July 2 and stayed 2 nights.  During our check in the lady at the front desk was rude.  I called down to let her know that I didn't have enough towels. She gave me maid service number and told me to call them.  The next morning my son and I went down to breakfast, I stopped at the desk she was going off on a customer.  I asked her where the breakfast room was, she rolled her eyes and kept walking. The next morning, at check out I asked for a receipt and she didn't want to really give me one.  I couldn't hold it any longer and let her have it.  The men that work at the hotel was fine! HARJINDER KABARWAI (the lady) needs to be removed from the front desk and put behind the scenes.  My rooms were not the best, I can put up with the train blowing all night but rudeness no!  I had 4 rooms in this place (RM 216, 214, 218, &amp; 207). If you want to contact me the hotel has my information. At $55.00 a night you get what you pay for.  Angela PalmerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r87613959-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>87613959</t>
+  </si>
+  <si>
+    <t>11/19/2010</t>
+  </si>
+  <si>
+    <t>BEWARE BED BUGS!</t>
+  </si>
+  <si>
+    <t>I found a bed bug when I got up in the morning and took it down to the front desk to show them. The lady had an attitude. Offered to move me to another room but since I was only staying one night, that was unacceptable. Refused to refund my money. Will never stay here again.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r69279042-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>69279042</t>
+  </si>
+  <si>
+    <t>06/30/2010</t>
+  </si>
+  <si>
+    <t>SICKENING!!</t>
+  </si>
+  <si>
+    <t>cheaper is NOT always better, especially in big cities like Arlington. This is not even worth 5 dollars a night in my opinion. Right when we pulled in I knew it was going to be bad because of the neighborhood and the loud train right across the road. When we first walked into the hotel room the smell hit us and it was terrible! It smelled like mildew and we walk in and there is green mold all over the walls! SICK! literally im sure that room had all kinds of airborn illnesses including asbestos. We knew immediately that we MUST get our money back and go somewhere else. We ended up at the Comfort Suites it was VERY nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>cheaper is NOT always better, especially in big cities like Arlington. This is not even worth 5 dollars a night in my opinion. Right when we pulled in I knew it was going to be bad because of the neighborhood and the loud train right across the road. When we first walked into the hotel room the smell hit us and it was terrible! It smelled like mildew and we walk in and there is green mold all over the walls! SICK! literally im sure that room had all kinds of airborn illnesses including asbestos. We knew immediately that we MUST get our money back and go somewhere else. We ended up at the Comfort Suites it was VERY nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r41326502-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>41326502</t>
+  </si>
+  <si>
+    <t>09/13/2009</t>
+  </si>
+  <si>
+    <t>Great Value Free Shuttle to Cowboy Stadium, Friendly Service</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here sep 4th weakend Hotel offered  free shuttle from 10am to midnight. Mexican restaurant and bar onsite has great food.We wanted to meet our friends at Bar in Linquin Square manager was so nice he offered us shuttle which saved us $20 cab fare.The Hotel was full with friendly Oklahoma fans staff was very friendly. I Will highly recomend to football fans becouse parking at stadium cost $60.</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r32872434-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>32872434</t>
+  </si>
+  <si>
+    <t>06/22/2009</t>
+  </si>
+  <si>
+    <t>WORST STAY EVER!!!!!</t>
+  </si>
+  <si>
+    <t>i would not recommend that anyone stay at this hotel.......it is not very clean.......i could go on and on about all of the things that went wrong here people, but, i have got to get to work... i will tell you the NUMBER ONE REASON WHY:there is a TRAIN........... oh yes, directly across the street.... and i will tell you now that it only seems to run at night... ABOUT EVERY HALF HOUR THRU THE NIGHT........it sounds like it is going RIGHT THRU YOUR ROOM.........so, if you have youngsters... like i do.... (2 years old)  you already know how tough it can be to get them to go to sleep, right?  imagine, that you are on vacation..... it is already way past their bed time... again, you are on vacation... they are so wound up, however, knowing if they sat still for even one minute, they would just pass right out... they are fighting it... finally, go to sleep, only to be awakend, two seconds later by a freakin FREIGHT TRAIN  that sounds like it is running thru your hotel room.......don't stay here people....MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>marketrep, Marketing Consultant at Rodeway Inn, responded to this reviewResponded June 24, 2009</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2009</t>
+  </si>
+  <si>
+    <t>i would not recommend that anyone stay at this hotel.......it is not very clean.......i could go on and on about all of the things that went wrong here people, but, i have got to get to work... i will tell you the NUMBER ONE REASON WHY:there is a TRAIN........... oh yes, directly across the street.... and i will tell you now that it only seems to run at night... ABOUT EVERY HALF HOUR THRU THE NIGHT........it sounds like it is going RIGHT THRU YOUR ROOM.........so, if you have youngsters... like i do.... (2 years old)  you already know how tough it can be to get them to go to sleep, right?  imagine, that you are on vacation..... it is already way past their bed time... again, you are on vacation... they are so wound up, however, knowing if they sat still for even one minute, they would just pass right out... they are fighting it... finally, go to sleep, only to be awakend, two seconds later by a freakin FREIGHT TRAIN  that sounds like it is running thru your hotel room.......don't stay here people....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r32446514-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>32446514</t>
+  </si>
+  <si>
+    <t>06/16/2009</t>
+  </si>
+  <si>
+    <t>BEWARE</t>
+  </si>
+  <si>
+    <t>We were in town for the Rangers game. We had two rooms, one of which the phone did not work. The other had a hole in the bathroom wall like someone put their fist through it. The blow dryer did not work. They did not leave any clean towels in one of the rooms, nor did they have any clean ones at the front desk. Not to mention they are right across the street from a train depot. Don't expect to get much sleep in between train horns all night. AND I DO MEAN ALL NIGHT.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r17151360-Rodeway_Inn-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>17151360</t>
+  </si>
+  <si>
+    <t>06/23/2008</t>
+  </si>
+  <si>
+    <t>Do no stay here!!!!</t>
+  </si>
+  <si>
+    <t>We went Arlington to watch the Braves baseball series with the Rangers. We booked two rooms more than a month in advance. When we arrived, about five o'clock, one of the rooms' air conditioner did not work. This is in addition to the rooms being FILTHY. I'll get back to that, though. It was 9:30 p.m. and two rooms later before we fianlly got a room with working air. The next morning, my husband, children, and I were getting ready to leave the room, and the door handle breaks from the INSIDE. We are stuck in our room. The in room phone would not ring it. It would ring out, but noone could call us. Therefore, there was no way for the front desk to contact us. we were finally released from our room, given a 75% discount for ONLY ONE NIGHT, and moved pool side to a nicer room. However, when you walked in the upstairs room, it felt the carpet was laid over nothing but floor slats. Every foot or foot and a half, you would sink. Talk about scary, this truely was.  We were afraid our children would fall through the ceiling of the room below. THEN...when we got to our van to go to the game and the construction workers who were working on the room of the motel had busted out my windshield. Needless to say, our mini vacation ended in a call to 911...We went Arlington to watch the Braves baseball series with the Rangers. We booked two rooms more than a month in advance. When we arrived, about five o'clock, one of the rooms' air conditioner did not work. This is in addition to the rooms being FILTHY. I'll get back to that, though. It was 9:30 p.m. and two rooms later before we fianlly got a room with working air. The next morning, my husband, children, and I were getting ready to leave the room, and the door handle breaks from the INSIDE. We are stuck in our room. The in room phone would not ring it. It would ring out, but noone could call us. Therefore, there was no way for the front desk to contact us. we were finally released from our room, given a 75% discount for ONLY ONE NIGHT, and moved pool side to a nicer room. However, when you walked in the upstairs room, it felt the carpet was laid over nothing but floor slats. Every foot or foot and a half, you would sink. Talk about scary, this truely was.  We were afraid our children would fall through the ceiling of the room below. THEN...when we got to our van to go to the game and the construction workers who were working on the room of the motel had busted out my windshield. Needless to say, our mini vacation ended in a call to 911 and a police report due to the violent nature of the foreman for the construction company. The owner, manager, and staff of this motel were friendly and understanding. They are paying to replace my windshield, but the facility needs desperate renovations before I would reccomend anyone staying there. However, the mexican resturant is wonderful on site!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>We went Arlington to watch the Braves baseball series with the Rangers. We booked two rooms more than a month in advance. When we arrived, about five o'clock, one of the rooms' air conditioner did not work. This is in addition to the rooms being FILTHY. I'll get back to that, though. It was 9:30 p.m. and two rooms later before we fianlly got a room with working air. The next morning, my husband, children, and I were getting ready to leave the room, and the door handle breaks from the INSIDE. We are stuck in our room. The in room phone would not ring it. It would ring out, but noone could call us. Therefore, there was no way for the front desk to contact us. we were finally released from our room, given a 75% discount for ONLY ONE NIGHT, and moved pool side to a nicer room. However, when you walked in the upstairs room, it felt the carpet was laid over nothing but floor slats. Every foot or foot and a half, you would sink. Talk about scary, this truely was.  We were afraid our children would fall through the ceiling of the room below. THEN...when we got to our van to go to the game and the construction workers who were working on the room of the motel had busted out my windshield. Needless to say, our mini vacation ended in a call to 911...We went Arlington to watch the Braves baseball series with the Rangers. We booked two rooms more than a month in advance. When we arrived, about five o'clock, one of the rooms' air conditioner did not work. This is in addition to the rooms being FILTHY. I'll get back to that, though. It was 9:30 p.m. and two rooms later before we fianlly got a room with working air. The next morning, my husband, children, and I were getting ready to leave the room, and the door handle breaks from the INSIDE. We are stuck in our room. The in room phone would not ring it. It would ring out, but noone could call us. Therefore, there was no way for the front desk to contact us. we were finally released from our room, given a 75% discount for ONLY ONE NIGHT, and moved pool side to a nicer room. However, when you walked in the upstairs room, it felt the carpet was laid over nothing but floor slats. Every foot or foot and a half, you would sink. Talk about scary, this truely was.  We were afraid our children would fall through the ceiling of the room below. THEN...when we got to our van to go to the game and the construction workers who were working on the room of the motel had busted out my windshield. Needless to say, our mini vacation ended in a call to 911 and a police report due to the violent nature of the foreman for the construction company. The owner, manager, and staff of this motel were friendly and understanding. They are paying to replace my windshield, but the facility needs desperate renovations before I would reccomend anyone staying there. However, the mexican resturant is wonderful on site!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2123,5977 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>125</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" t="s">
+        <v>149</v>
+      </c>
+      <c r="L20" t="s">
+        <v>150</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>139</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>153</v>
+      </c>
+      <c r="J21" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21" t="s">
+        <v>155</v>
+      </c>
+      <c r="L21" t="s">
+        <v>156</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>113</v>
+      </c>
+      <c r="O21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>158</v>
+      </c>
+      <c r="J22" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" t="s">
+        <v>159</v>
+      </c>
+      <c r="L22" t="s">
+        <v>160</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>113</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>113</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>113</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" t="s">
+        <v>170</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>113</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>172</v>
+      </c>
+      <c r="J26" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" t="s">
+        <v>174</v>
+      </c>
+      <c r="L26" t="s">
+        <v>175</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>113</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>178</v>
+      </c>
+      <c r="J27" t="s">
+        <v>179</v>
+      </c>
+      <c r="K27" t="s">
+        <v>180</v>
+      </c>
+      <c r="L27" t="s">
+        <v>181</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>184</v>
+      </c>
+      <c r="J28" t="s">
+        <v>185</v>
+      </c>
+      <c r="K28" t="s">
+        <v>186</v>
+      </c>
+      <c r="L28" t="s">
+        <v>187</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>188</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>191</v>
+      </c>
+      <c r="J29" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s">
+        <v>193</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>188</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>196</v>
+      </c>
+      <c r="J30" t="s">
+        <v>197</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>198</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>200</v>
+      </c>
+      <c r="J31" t="s">
+        <v>197</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>198</v>
+      </c>
+      <c r="O31" t="s">
+        <v>94</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>202</v>
+      </c>
+      <c r="J32" t="s">
+        <v>203</v>
+      </c>
+      <c r="K32" t="s">
+        <v>204</v>
+      </c>
+      <c r="L32" t="s">
+        <v>205</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>198</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>207</v>
+      </c>
+      <c r="J33" t="s">
+        <v>208</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>188</v>
+      </c>
+      <c r="O33" t="s">
+        <v>86</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>209</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>210</v>
+      </c>
+      <c r="J34" t="s">
+        <v>211</v>
+      </c>
+      <c r="K34" t="s">
+        <v>212</v>
+      </c>
+      <c r="L34" t="s">
+        <v>213</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>188</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>214</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>215</v>
+      </c>
+      <c r="J35" t="s">
+        <v>216</v>
+      </c>
+      <c r="K35" t="s">
+        <v>217</v>
+      </c>
+      <c r="L35" t="s">
+        <v>218</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>188</v>
+      </c>
+      <c r="O35" t="s">
+        <v>86</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>219</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>220</v>
+      </c>
+      <c r="J36" t="s">
+        <v>221</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>188</v>
+      </c>
+      <c r="O36" t="s">
+        <v>68</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>223</v>
+      </c>
+      <c r="J37" t="s">
+        <v>224</v>
+      </c>
+      <c r="K37" t="s">
+        <v>225</v>
+      </c>
+      <c r="L37" t="s">
+        <v>226</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>188</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>228</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>229</v>
+      </c>
+      <c r="J38" t="s">
+        <v>230</v>
+      </c>
+      <c r="K38" t="s">
+        <v>231</v>
+      </c>
+      <c r="L38" t="s">
+        <v>232</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>233</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>234</v>
+      </c>
+      <c r="J39" t="s">
+        <v>235</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>236</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>238</v>
+      </c>
+      <c r="J40" t="s">
+        <v>239</v>
+      </c>
+      <c r="K40" t="s">
+        <v>240</v>
+      </c>
+      <c r="L40" t="s">
+        <v>241</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>236</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>244</v>
+      </c>
+      <c r="J41" t="s">
+        <v>245</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>236</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>247</v>
+      </c>
+      <c r="J42" t="s">
+        <v>248</v>
+      </c>
+      <c r="K42" t="s">
+        <v>249</v>
+      </c>
+      <c r="L42" t="s">
+        <v>250</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>251</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>252</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>253</v>
+      </c>
+      <c r="J43" t="s">
+        <v>254</v>
+      </c>
+      <c r="K43" t="s">
+        <v>255</v>
+      </c>
+      <c r="L43" t="s">
+        <v>256</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>251</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>258</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>259</v>
+      </c>
+      <c r="J44" t="s">
+        <v>260</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>251</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>262</v>
+      </c>
+      <c r="J45" t="s">
+        <v>263</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s">
+        <v>193</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>251</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>264</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>265</v>
+      </c>
+      <c r="J46" t="s">
+        <v>266</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s">
+        <v>193</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>251</v>
+      </c>
+      <c r="O46" t="s">
+        <v>68</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>267</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>268</v>
+      </c>
+      <c r="J47" t="s">
+        <v>269</v>
+      </c>
+      <c r="K47" t="s">
+        <v>270</v>
+      </c>
+      <c r="L47" t="s">
+        <v>271</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>272</v>
+      </c>
+      <c r="O47" t="s">
+        <v>94</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>273</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>274</v>
+      </c>
+      <c r="J48" t="s">
+        <v>275</v>
+      </c>
+      <c r="K48" t="s">
+        <v>276</v>
+      </c>
+      <c r="L48" t="s">
+        <v>277</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>278</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>279</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>280</v>
+      </c>
+      <c r="J49" t="s">
+        <v>281</v>
+      </c>
+      <c r="K49" t="s">
+        <v>282</v>
+      </c>
+      <c r="L49" t="s">
+        <v>283</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>284</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>285</v>
+      </c>
+      <c r="J50" t="s">
+        <v>286</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s"/>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>287</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>288</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>289</v>
+      </c>
+      <c r="J51" t="s">
+        <v>290</v>
+      </c>
+      <c r="K51" t="s">
+        <v>291</v>
+      </c>
+      <c r="L51" t="s">
+        <v>292</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>293</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>294</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>295</v>
+      </c>
+      <c r="J52" t="s">
+        <v>296</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>293</v>
+      </c>
+      <c r="O52" t="s">
+        <v>86</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>297</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>298</v>
+      </c>
+      <c r="J53" t="s">
+        <v>299</v>
+      </c>
+      <c r="K53" t="s">
+        <v>300</v>
+      </c>
+      <c r="L53" t="s">
+        <v>301</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>293</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>302</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>303</v>
+      </c>
+      <c r="J54" t="s">
+        <v>304</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>305</v>
+      </c>
+      <c r="O54" t="s">
+        <v>86</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>306</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>307</v>
+      </c>
+      <c r="J55" t="s">
+        <v>308</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>305</v>
+      </c>
+      <c r="O55" t="s">
+        <v>68</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>309</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>310</v>
+      </c>
+      <c r="J56" t="s">
+        <v>311</v>
+      </c>
+      <c r="K56" t="s">
+        <v>312</v>
+      </c>
+      <c r="L56" t="s">
+        <v>313</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>305</v>
+      </c>
+      <c r="O56" t="s">
+        <v>86</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>315</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>316</v>
+      </c>
+      <c r="J57" t="s">
+        <v>317</v>
+      </c>
+      <c r="K57" t="s">
+        <v>318</v>
+      </c>
+      <c r="L57" t="s">
+        <v>319</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>320</v>
+      </c>
+      <c r="O57" t="s">
+        <v>94</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>321</v>
+      </c>
+      <c r="X57" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>324</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>325</v>
+      </c>
+      <c r="J58" t="s">
+        <v>326</v>
+      </c>
+      <c r="K58" t="s">
+        <v>327</v>
+      </c>
+      <c r="L58" t="s">
+        <v>328</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>329</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>330</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>331</v>
+      </c>
+      <c r="J59" t="s">
+        <v>332</v>
+      </c>
+      <c r="K59" t="s">
+        <v>333</v>
+      </c>
+      <c r="L59" t="s">
+        <v>334</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>329</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>335</v>
+      </c>
+      <c r="X59" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>338</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>339</v>
+      </c>
+      <c r="J60" t="s">
+        <v>340</v>
+      </c>
+      <c r="K60" t="s">
+        <v>341</v>
+      </c>
+      <c r="L60" t="s">
+        <v>342</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>329</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>335</v>
+      </c>
+      <c r="X60" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>344</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>345</v>
+      </c>
+      <c r="J61" t="s">
+        <v>346</v>
+      </c>
+      <c r="K61" t="s">
+        <v>347</v>
+      </c>
+      <c r="L61" t="s">
+        <v>348</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>349</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>350</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>351</v>
+      </c>
+      <c r="J62" t="s">
+        <v>352</v>
+      </c>
+      <c r="K62" t="s">
+        <v>353</v>
+      </c>
+      <c r="L62" t="s">
+        <v>354</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>320</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>355</v>
+      </c>
+      <c r="X62" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>358</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>359</v>
+      </c>
+      <c r="J63" t="s">
+        <v>360</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s">
+        <v>193</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>320</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>361</v>
+      </c>
+      <c r="X63" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>363</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>364</v>
+      </c>
+      <c r="J64" t="s">
+        <v>365</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>320</v>
+      </c>
+      <c r="O64" t="s">
+        <v>86</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>366</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>367</v>
+      </c>
+      <c r="J65" t="s">
+        <v>368</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s">
+        <v>193</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>369</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>370</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>371</v>
+      </c>
+      <c r="J66" t="s">
+        <v>372</v>
+      </c>
+      <c r="K66" t="s">
+        <v>373</v>
+      </c>
+      <c r="L66" t="s">
+        <v>374</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>369</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>375</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>376</v>
+      </c>
+      <c r="J67" t="s">
+        <v>377</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>369</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>2</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>378</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>379</v>
+      </c>
+      <c r="J68" t="s">
+        <v>380</v>
+      </c>
+      <c r="K68" t="s">
+        <v>381</v>
+      </c>
+      <c r="L68" t="s">
+        <v>382</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>383</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>384</v>
+      </c>
+      <c r="J69" t="s">
+        <v>385</v>
+      </c>
+      <c r="K69" t="s">
+        <v>386</v>
+      </c>
+      <c r="L69" t="s">
+        <v>387</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>388</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>389</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>390</v>
+      </c>
+      <c r="J70" t="s">
+        <v>391</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>388</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>392</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>393</v>
+      </c>
+      <c r="J71" t="s">
+        <v>394</v>
+      </c>
+      <c r="K71" t="s">
+        <v>395</v>
+      </c>
+      <c r="L71" t="s">
+        <v>396</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>397</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>398</v>
+      </c>
+      <c r="J72" t="s">
+        <v>399</v>
+      </c>
+      <c r="K72" t="s">
+        <v>400</v>
+      </c>
+      <c r="L72" t="s">
+        <v>401</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>402</v>
+      </c>
+      <c r="O72" t="s">
+        <v>86</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>404</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>405</v>
+      </c>
+      <c r="J73" t="s">
+        <v>406</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>407</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>408</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>409</v>
+      </c>
+      <c r="J74" t="s">
+        <v>410</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>407</v>
+      </c>
+      <c r="O74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>411</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>412</v>
+      </c>
+      <c r="J75" t="s">
+        <v>413</v>
+      </c>
+      <c r="K75" t="s">
+        <v>414</v>
+      </c>
+      <c r="L75" t="s">
+        <v>415</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>416</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>417</v>
+      </c>
+      <c r="J76" t="s">
+        <v>418</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>419</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>420</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>421</v>
+      </c>
+      <c r="J77" t="s">
+        <v>422</v>
+      </c>
+      <c r="K77" t="s">
+        <v>423</v>
+      </c>
+      <c r="L77" t="s">
+        <v>424</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>419</v>
+      </c>
+      <c r="O77" t="s">
+        <v>94</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>425</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>426</v>
+      </c>
+      <c r="J78" t="s">
+        <v>427</v>
+      </c>
+      <c r="K78" t="s">
+        <v>428</v>
+      </c>
+      <c r="L78" t="s">
+        <v>429</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>430</v>
+      </c>
+      <c r="O78" t="s">
+        <v>86</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>431</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>432</v>
+      </c>
+      <c r="J79" t="s">
+        <v>427</v>
+      </c>
+      <c r="K79" t="s">
+        <v>433</v>
+      </c>
+      <c r="L79" t="s">
+        <v>434</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>430</v>
+      </c>
+      <c r="O79" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>435</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>436</v>
+      </c>
+      <c r="J80" t="s">
+        <v>437</v>
+      </c>
+      <c r="K80" t="s">
+        <v>438</v>
+      </c>
+      <c r="L80" t="s">
+        <v>439</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>440</v>
+      </c>
+      <c r="O80" t="s">
+        <v>94</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>441</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>442</v>
+      </c>
+      <c r="J81" t="s">
+        <v>443</v>
+      </c>
+      <c r="K81" t="s">
+        <v>444</v>
+      </c>
+      <c r="L81" t="s">
+        <v>445</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>440</v>
+      </c>
+      <c r="O81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>446</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>447</v>
+      </c>
+      <c r="J82" t="s">
+        <v>448</v>
+      </c>
+      <c r="K82" t="s">
+        <v>449</v>
+      </c>
+      <c r="L82" t="s">
+        <v>450</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>451</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>452</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>453</v>
+      </c>
+      <c r="J83" t="s">
+        <v>454</v>
+      </c>
+      <c r="K83" t="s">
+        <v>455</v>
+      </c>
+      <c r="L83" t="s">
+        <v>456</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>457</v>
+      </c>
+      <c r="O83" t="s">
+        <v>60</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>459</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>460</v>
+      </c>
+      <c r="J84" t="s">
+        <v>461</v>
+      </c>
+      <c r="K84" t="s">
+        <v>462</v>
+      </c>
+      <c r="L84" t="s">
+        <v>463</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>464</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>465</v>
+      </c>
+      <c r="J85" t="s">
+        <v>466</v>
+      </c>
+      <c r="K85" t="s">
+        <v>467</v>
+      </c>
+      <c r="L85" t="s">
+        <v>468</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>469</v>
+      </c>
+      <c r="O85" t="s">
+        <v>86</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>471</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>472</v>
+      </c>
+      <c r="J86" t="s">
+        <v>473</v>
+      </c>
+      <c r="K86" t="s">
+        <v>474</v>
+      </c>
+      <c r="L86" t="s">
+        <v>475</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>476</v>
+      </c>
+      <c r="O86" t="s">
+        <v>60</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>2</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>478</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>479</v>
+      </c>
+      <c r="J87" t="s">
+        <v>473</v>
+      </c>
+      <c r="K87" t="s">
+        <v>480</v>
+      </c>
+      <c r="L87" t="s">
+        <v>481</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>476</v>
+      </c>
+      <c r="O87" t="s">
+        <v>86</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>483</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>484</v>
+      </c>
+      <c r="J88" t="s">
+        <v>485</v>
+      </c>
+      <c r="K88" t="s">
+        <v>486</v>
+      </c>
+      <c r="L88" t="s">
+        <v>487</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>476</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>489</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>490</v>
+      </c>
+      <c r="J89" t="s">
+        <v>491</v>
+      </c>
+      <c r="K89" t="s">
+        <v>492</v>
+      </c>
+      <c r="L89" t="s">
+        <v>493</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>494</v>
+      </c>
+      <c r="O89" t="s">
+        <v>94</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>495</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>496</v>
+      </c>
+      <c r="J90" t="s">
+        <v>497</v>
+      </c>
+      <c r="K90" t="s">
+        <v>498</v>
+      </c>
+      <c r="L90" t="s">
+        <v>499</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>500</v>
+      </c>
+      <c r="O90" t="s">
+        <v>86</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>502</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>503</v>
+      </c>
+      <c r="J91" t="s">
+        <v>504</v>
+      </c>
+      <c r="K91" t="s">
+        <v>505</v>
+      </c>
+      <c r="L91" t="s">
+        <v>506</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>507</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>508</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>509</v>
+      </c>
+      <c r="J92" t="s">
+        <v>510</v>
+      </c>
+      <c r="K92" t="s">
+        <v>511</v>
+      </c>
+      <c r="L92" t="s">
+        <v>512</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>513</v>
+      </c>
+      <c r="O92" t="s">
+        <v>60</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>2</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>514</v>
+      </c>
+      <c r="X92" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>517</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>518</v>
+      </c>
+      <c r="J93" t="s">
+        <v>519</v>
+      </c>
+      <c r="K93" t="s">
+        <v>520</v>
+      </c>
+      <c r="L93" t="s">
+        <v>521</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>513</v>
+      </c>
+      <c r="O93" t="s">
+        <v>60</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>3520</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>522</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>523</v>
+      </c>
+      <c r="J94" t="s">
+        <v>524</v>
+      </c>
+      <c r="K94" t="s">
+        <v>525</v>
+      </c>
+      <c r="L94" t="s">
+        <v>526</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>527</v>
+      </c>
+      <c r="O94" t="s">
+        <v>60</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>528</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_669.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_669.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="622">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Wizidofaus</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Deborah H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r383815623-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>I reserved three rooms for a weekend vacation with my kids. Each room was different; one room didn't have a mirror, two didn't have hair dryers, but all had a small flat screen TV, fridge, and microwave. There were no in room coffee pots. The hotel offered a continental breakfast which was cereal, toast, small honey buns, orange juice and coffee. So we ended up eating breakfast somewhere else. The hotel staff was stingy on towels, expecting four adults to use two towels but quickly gave me more when I complained. The housekeeping staff took two white towels that my daughter brought from her home and hadn't returned them yet. The hotel is next to train tracks and the trains ran all night. The room itself was decent; clean sheets and two pillows per bed. There was a hole in the ceiling of one shower and it's not clear what is was for. Parking is sparce for front rooms so when we returned we had to park in the back. My daughters shared that they felt the housekeeping staff went through their drawers but nothing was taken. Overall it was a good stay but not sure if we will use this hotel again.More</t>
   </si>
   <si>
+    <t>Maurice P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r334444305-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>martinrA5416FZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r324506404-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>922gregoryb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r324275259-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>Spent the day at Six Flags "Fright Fest". Only time I got scared was thinking I had to pay 100$ for that dump of a room we stayed in that night. Ridiculous! We don't get out as a family much , and the kids are always excited to see what room pops has gotten for them. Made me look like a chump. Six Flags needs to be reimbursed for having there name associated with this place. Rant over.</t>
   </si>
   <si>
+    <t>Julie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r297324958-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>I know I didn't pay all that much to stay here, but I still gave them my money and you should still give decent customer service. The guy at the desk wasn't very friendly and he didn't even bother telling us that our room was in the second building back(instead he watched us take our things through the lobby to walk all the way back) It's also under construction or something at the moment(which I totally understand) but maybe a note or something to notify guests before booking would be nice. They had large trash bins all over the parking lots(even in the spaces by the rooms that were open) and it just seemed like a total mess. The room itself did at least smell okay but it was very hot when we got in. The paint was coming off the walls and we had stuff drawn on the back of our bathroom door. The thing that really made me come to leave this review was that I especially called a couple of weeks in advance to make sure they would hold our things and have a shuttle that could take us to six flags the day we checked out. Whoever I spoke with assured us that they did and did not hesitate to do so. On the day we needed it the guy wasn't all that friendly and told us he would not hold our things(tbh i don't think...I know I didn't pay all that much to stay here, but I still gave them my money and you should still give decent customer service. The guy at the desk wasn't very friendly and he didn't even bother telling us that our room was in the second building back(instead he watched us take our things through the lobby to walk all the way back) It's also under construction or something at the moment(which I totally understand) but maybe a note or something to notify guests before booking would be nice. They had large trash bins all over the parking lots(even in the spaces by the rooms that were open) and it just seemed like a total mess. The room itself did at least smell okay but it was very hot when we got in. The paint was coming off the walls and we had stuff drawn on the back of our bathroom door. The thing that really made me come to leave this review was that I especially called a couple of weeks in advance to make sure they would hold our things and have a shuttle that could take us to six flags the day we checked out. Whoever I spoke with assured us that they did and did not hesitate to do so. On the day we needed it the guy wasn't all that friendly and told us he would not hold our things(tbh i don't think I would have wanted them too anyways) but it was very disappointing and we had to re-plan the day. Over all, the staff isn't friendly, the rooms are run down and I would never stay here again.More</t>
   </si>
   <si>
+    <t>Courtie_b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r270850770-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -306,6 +327,9 @@
     <t>Traveled here as a sponsor on a school trip. The rooms had to be on the cheaper end, as the students raised the money themselves. This, however, was ridiculous! The paint on the doors were peeling. Some doors were broken. The smoke detectors had been removed. There were bugs in the beds and on the floors. There was food left in the drawers and on the floor. The rooms themselves were absolutely filthy. We did not feel that it was a safe or healthy environment for our students so we demand our money back and left. We are thankful to Holiday Inn for accommodating us at such short notice. I feel bad we brought the kids to a place like this.More</t>
   </si>
   <si>
+    <t>daejrlvr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r266915845-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Ron P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r266803124-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -330,6 +357,9 @@
     <t>My finance booked a room a year ago to the Academy of Country Music awards. The price was $68 per night. When we show up for the room the East Indian owner said the rooms were no longer available because of a water main break but $168 he could find us something. We had a United states senator in our party and he gave us rooms at the Hilton. I have a friend in the Ft Worth police dept there was no water main break, strictly a lie, they put 50 people on the street. This is America, like it or leave</t>
   </si>
   <si>
+    <t>Patricia G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r256237353-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -348,6 +378,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Edward M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r255896803-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -360,6 +393,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Connor S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r255547689-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -378,6 +414,9 @@
     <t>This is the worst hotel I have ever stayed in! Where do I begin? The staff does not speak english and were very rude and unwilling to help any guest. The rooms are outdated, dirty and nasty. There was mold all in the bathroom. I asked for a non smoking room, the room they gave me smelled like an ashtray.There were people walking all around the parking lot and up and down the halls yelling as loud as they could (being the rooms were outside and is not in a safe neighborhood at all) It seemed like nothing but drug and illegal activity was going on in parking lot. It is literally located 10 feet from a very busy train track which blows its horn ALL night long. I asked to speak to the owner about my experience and when I finally spoke to him after a long run around from the front desk saying he was not available, he seemed like he could careless what I or any of his customers have to say. VERY RUDE MAN his name is Tony I believe. The breakfast is HORRIBLE. milk was sour cereal was stale and there was no coffee! I wish there is a way that I could get this hotel shut down or at least cleaned up, even though that wont change the attitude of the staff. I wouldn't let a homeless person stay there much less my family....This is the worst hotel I have ever stayed in! Where do I begin? The staff does not speak english and were very rude and unwilling to help any guest. The rooms are outdated, dirty and nasty. There was mold all in the bathroom. I asked for a non smoking room, the room they gave me smelled like an ashtray.There were people walking all around the parking lot and up and down the halls yelling as loud as they could (being the rooms were outside and is not in a safe neighborhood at all) It seemed like nothing but drug and illegal activity was going on in parking lot. It is literally located 10 feet from a very busy train track which blows its horn ALL night long. I asked to speak to the owner about my experience and when I finally spoke to him after a long run around from the front desk saying he was not available, he seemed like he could careless what I or any of his customers have to say. VERY RUDE MAN his name is Tony I believe. The breakfast is HORRIBLE. milk was sour cereal was stale and there was no coffee! I wish there is a way that I could get this hotel shut down or at least cleaned up, even though that wont change the attitude of the staff. I wouldn't let a homeless person stay there much less my family. The price was ridiculous for such nasty rooms but I had no choice to stay there as my reservation was prepaid and front desk told me there was no refunds anyway.. Please do not bring anymore business to this hotel. You would be better off sleeping in your car!More</t>
   </si>
   <si>
+    <t>haiqingz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r245952062-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -396,6 +435,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>rick3667</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r245867954-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -405,6 +447,9 @@
     <t>12/25/2014</t>
   </si>
   <si>
+    <t>doclozoya1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r245785074-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -420,6 +465,9 @@
     <t>very dirty room, I had a non-smoking room reservation and when I got there they only had smoking wich was filthy</t>
   </si>
   <si>
+    <t>553sethm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r243089193-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -438,6 +486,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Talmonp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r242157565-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -447,6 +498,9 @@
     <t>11/30/2014</t>
   </si>
   <si>
+    <t>Mary Esther C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r238385820-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -456,6 +510,9 @@
     <t>11/05/2014</t>
   </si>
   <si>
+    <t>Dave S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r238168051-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -474,6 +531,9 @@
     <t>Picked this place because of the shuttle to the Cowboy's game and price.  Found out that it's not even worth the price.  The room had a terrible smell.  The sheets had dead insects in them..(had them replaced).  The sink was leaking all night.  Turned on the heater and it set off the alarm.  No microwave or fridge or iron...as stated online.  And the breakfast was non-existent.  And we wake up in the morning to find out a police car outside taking a statement from someone who had his tool box stolen from his truck the night before.The shuttle was good...did drop us off and picked us up as stated.  But I would have paid for parking next time or grabbed a taxi.  It was a long wait.All in all...I would never stay there again. Final thoughts.....for a place that caters to people who go to the games and to the amusement parks around there and potential repeat returners...you would think they would read these reviews and fix the problems.  Obviously they don't care....and in my book..that's not how you run a business.More</t>
   </si>
   <si>
+    <t>ermilindaq</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r237916883-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -489,6 +549,9 @@
     <t>Good location, disappointed that shuttle only ran till 10 pm, when we were told it would run till 11 pm on game day.  Quite a few guests had to walk the 3 1/2 miles back to motel due to this issue.</t>
   </si>
   <si>
+    <t>92reynaj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r237902868-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -501,6 +564,9 @@
     <t xml:space="preserve">Booked two rooms.  My son left to a friends house, room smelled horrible.  We were misled about shuttle.  Dropped us pretty far out Att stadium.  Driver told me they would not pick us up, had already talked  to someone, was told other wise.  If I had known the truth, I would have driven.  </t>
   </si>
   <si>
+    <t>yourdreamer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r237167014-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -510,12 +576,18 @@
     <t>10/30/2014</t>
   </si>
   <si>
+    <t>michaelrX3083OQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r237166920-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
     <t>237166920</t>
   </si>
   <si>
+    <t>Lisa H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r236520261-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -529,6 +601,9 @@
   </si>
   <si>
     <t>It was absolutely awful!  Dirt, smelly, cockroach infested!!!  The staff was unprofessional.  No service to speak of.  Had to go to the desk for fresh linens and towels!!!!!  I would never recommend this to anyone, except maybe the Department Of Health!!!!!!!</t>
+  </si>
+  <si>
+    <t>Chris A</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r234637109-Rodeway_Inn-Arlington_Texas.html</t>
@@ -553,6 +628,9 @@
 Once we had light we noticed a huge stain on the curtain,...On a whim my family and I decided to take a weekend vacation to Six Flags as my kids and wife had never been before. I looked online for motels to stay in that were budget friendly as this was not a planned trip. Usually I read reviews on here before booking, but this time I didn’t for some reason – I saw the Days Inn name and I suppose I trusted the name, and because of this motel’s proximity to so many large attractions I just assumed it would be fine. Upon arriving we checked in with no problems, the person who checked us in was of average friendliness, except he did not tell us where our room was – we had to look for it ourselves. When we found the room there was a plastic trash bag tied to a tree outside our room, and the door and trim seemed to be in a bit of disrepair, but I didn’t think much about that. We entered the room with no problem, and flipped the light switch to on, but no lights came on. We tried the lamp in the corner, but it didn’t work, then we tried the lamp on the wall between the beds, but it did not work either. Finally we found a light on the other side of the wall that did work. Once we had light we noticed a huge stain on the curtain, which was unsettling. We decided to unpack a bit, and while we were doing that our kids wanted to watch TV. We tried the remote, but it didn’t work, so we had to use the buttons on the TV. Next we tried to connect to the Wi-Fi but the code in the room did not work, so my wife had to go ask the front desk. Once we got the correct code the Wi-Fi worked great with no problems at all.The AC seemed to work just fine, I noticed a lot of other reviews state they had problems with it, but ours worked well. Keep in mind though we stayed in mid-October, it was not hot outside at all. The fridge in the room worked perfectly – it kept our leftovers very cold, and was clean. The toilet in the room was in a state of disrepair though. The back cover did not fit as it was not the correct cover for the tank. Also the toilet seat was not attached well. One side was lose and if you leaned too far one way or the other it slid and was kind of like a ride at Six Flags, except this one was not safe. We ordered pizza the first night and while we were waiting I decided to look at reviews on this site about this motel. After reading several I was somewhat frightened. It was too late to change really, so we didn’t have much of a choice. Many reviews mention bugs, but we did not see nor were bitten by a single bug. There was a Snickers wrapper on the floor in our room, the vents to the AC were dirty, and the stain on the curtain were the only cleanliness issues. The bedding all seemed to be clean, and room service seemed to do a good job cleaning and restocking  for the second day. After our first night we went to the lobby to take the shuttle to Six Flags. We didn’t get a chance to try the breakfast as we slept in both days. The person at the desk was very friendly. After a few minutes a man came out to take us to the park. I assume he was the owner. Instead of taking the shuttle he drove us in his personal car which was very nice. He dropped us off and told us where we should wait to be picked up, he was very friendly. He said to call about ten to fifteen minutes before we wanted to be picked up, and they would come back.We had a great time at Six Flags and did as we were told, called about 15 minutes before we wanted to be picked up. This was around 9:30 at night after being at the park since it opened. About 15 minutes after we first called, they called back and said the shuttle would be there in about 15 minutes. That was a little longer than we expected, but stood where we were supposed to and kept an eye out for the white shuttle van we had seen at the motel. After nearly an hour had passed we see the owner walking toward us that had dropped us off earlier that day. He had parked about as far away from where we were because there was not really any parking nearby, however we were not expecting him to pick us up in his car again, so we did not notice it when he drove into the park. To his credit he did walk a good distance to find us, he didn’t leave us there. He may have been there a lot sooner and we just didn’t notice. When we got back to the motel he dropped us off in front, and on our way through the lobby I asked the person at the front desk if I could get an extra pillow and he said “sure, I’ll let them know”. We then went on to our room. By this time it was nearing 11:00 at night, we were all cold tired and hungry. When we get to our room the key did not work! We all went back to the office and they told us our keys did not work because we didn’t pay for both nights! At every other hotel/motel I have stayed at they have always charged for the entire stay at the same time – at check in. When we checked in the guy only charged us for one night. Once they charged my card again they re-activated the key and we were able to enter the room. We then ordered pizza again, waited for it, ate and got ready for bed, but no pillow. I just gave up on it and we all went to sleep. After about 20 minutes of being asleep the phone rang. I was closest to it, but I didn’t get awake enough in time to answer it. I didn’t think too much about it and went back to sleep. A few minutes later there was a knock at the door. Then we heard the sound of the door being unlocked, and we started to freak out. My wife was closest to the door and was able to get up in time before anyone came in. They were delivering the pillow. We assume they thought we weren’t there and were just going to leave the pillow for us, but it was quite frightening none the less. The next morning my wife tried to make coffee, but the coffee pot did not work.While we were there we didn’t see any shady characters, and the police were never there as described in other reviews. Everyone we dealt with was nice. There was no noise at all except for the trains. They did wake us up each time one passed, but it was only a couple of times per night. We didn’t go swimming, nor did we try the restaurant. Everything seemed to work out OK for us.More</t>
   </si>
   <si>
+    <t>Bobby T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r233472301-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -571,6 +649,9 @@
     <t>I was pretty upset due to the fact that I wasn't aware that if you didn't check in at a current time that they would cancel your reservations, even though they were prepaid. My wife and I were in Dallas, Tx. visiting with family that we had not seen in over 15 years and had not realize on it being late. When we made are way to the hotel I had my wife call and got the news that our room had been canceled due to us not checking in at a certain time. I was under the impression that I paid for the rooms about a month ago I should not have to call that I was going to be late since the rooms were prepaid. So this meaning that I had a room saved no matter the situation. So answer me this ? what's the point in reserving rooms if they are not going to hold them for you. I was there for the Cowboys/Texans game, made my way all they way from way down south Texas to experience this even though I was refunded my money but that's not the point.  More</t>
   </si>
   <si>
+    <t>sherrysullenger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r232949856-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -592,6 +673,9 @@
     <t>Your Review      We had to ask to Change rooms bcuz the door was busted in and wouldn't lock, then the 2nd room had a smoke smell and black on the ceiling from a fire it had before. We didn't have towels, the tv didn't work, no phone. Also my husband went to get breakfast the next day and bcuz he couldn't remember our room number the desk clerk threatened to call the police on him.we had a very bad experience on this visit. We are planning to go again but I don't think we will stay there bcuz it was a waste of our hard earned money. If they would make it right we would be willing to try it out again More</t>
   </si>
   <si>
+    <t>Gerald P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r229466192-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -607,6 +691,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Marisol M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r228196492-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -619,12 +706,18 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Kelley W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r228175658-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
     <t>228175658</t>
   </si>
   <si>
+    <t>Gonzales33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r226743403-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -640,6 +733,9 @@
     <t>Gave us two rooms that where occupied finally got a room that wasn't occupied. Just walking in there I felt dirty. Walked into the restroom had dead bugs and hair in the tub and had bugs alive everywhere. The lights sucked as well as the whole room. Went to go check out the very next morning and while checking out they couldn't even find our reservations. Overall it was NASTY, DISGUSTING &amp; HORRIBLE!!!! They need to honestly shut this Days Inn down!!!!</t>
   </si>
   <si>
+    <t>Ryan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r226468094-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -649,6 +745,9 @@
     <t>09/02/2014</t>
   </si>
   <si>
+    <t>OklahomaFun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r226154934-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -664,6 +763,9 @@
     <t>First room we were given still had occupants in it.  We returned to the front desk and was given another room.  This one was a king with a foldout instead of 2 queens as reserved.  Not wanting to change rooms again, we decided that the 4 of us ( 1adult - 3 kids)could handle it.  The a/c didn't keep the room cool at all and some lights were out in the room.  Overall, not pleased at all.  We normally just require a nice, clean room to sleep in but this didn't fit those expectations.</t>
   </si>
   <si>
+    <t>Kristi1016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r223660463-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -679,6 +781,9 @@
     <t>This place is horrible... down right nasty!!  We had 3 rooms booked.  One room had hair on pillows and under blankets.  The lights didn't work in 2nd room and when we finally got a side light to work, there was yuck all over the walls.  The 3rd room had someone else in it.  None of us stayed.  Just a gross place!!!!</t>
   </si>
   <si>
+    <t>Vernon S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r223183123-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -688,6 +793,9 @@
     <t>08/20/2014</t>
   </si>
   <si>
+    <t>royalqueen38</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r222486017-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -706,6 +814,9 @@
     <t>What ever you do please read all the reviews first . Our one big mistake we did not read reviews and only looked at pretty pictures and price .    If you want to sleep ... you will not sleep.  Motel located right next to train tracks with constantly blowing horn every thirty minutes mostly at night and early morning .  First thing I notice upon checking in ... notice smell .... cant explain it at all ...... upon entering room very musty smell .... we wanted non smoking but I do think that it was smoking room.  Went to turn on lights only one light worked ..... had to move big heavy beds to plug in all the other lights .  Bathtub was dirty, Because bathroom ceiling was so low ... my tall son hit his arms on the ceiling trying to pull his shirt up over his head . So trying to make the most of our stay .... we left to go see a movie ... while there it began to rain heavily .... when we returned to our room ... our room was LEAKING ... carpet was soaked and wet and some of our stuff was wet  and our room was located on first floor !! The attendants were not concerned about it at all .  Pool was just over sized bathtub to me . Found holes in the walls ...  Breakfast was terrible .    little muffins...What ever you do please read all the reviews first . Our one big mistake we did not read reviews and only looked at pretty pictures and price .    If you want to sleep ... you will not sleep.  Motel located right next to train tracks with constantly blowing horn every thirty minutes mostly at night and early morning .  First thing I notice upon checking in ... notice smell .... cant explain it at all ...... upon entering room very musty smell .... we wanted non smoking but I do think that it was smoking room.  Went to turn on lights only one light worked ..... had to move big heavy beds to plug in all the other lights .  Bathtub was dirty, Because bathroom ceiling was so low ... my tall son hit his arms on the ceiling trying to pull his shirt up over his head . So trying to make the most of our stay .... we left to go see a movie ... while there it began to rain heavily .... when we returned to our room ... our room was LEAKING ... carpet was soaked and wet and some of our stuff was wet  and our room was located on first floor !! The attendants were not concerned about it at all .  Pool was just over sized bathtub to me . Found holes in the walls ...  Breakfast was terrible .    little muffins , stale cereal , and warm milk . We will most definitely will not be back. Vents in air conditioner were broken ......  nightmare ... Also was afraid to sleep under the sheets so we slept on top of bedspread with our on blanketsMore</t>
   </si>
   <si>
+    <t>mccrays</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r219497647-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -721,6 +832,9 @@
     <t>This was the worst i have ever stay at i wouldn't even call a hotel thd keys never worked thd housekeeping we never saw and nothing in our room work.don't let me start on what that breakfast was i wouldn't want anyone wasting there money here......</t>
   </si>
   <si>
+    <t>Mari E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r218825376-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -733,6 +847,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Sarah B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r218151470-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -751,6 +868,9 @@
     <t>I went with this hotel because of the price and amenities. Not worth the savings. Continental breakfast consisted of muffins and stale cereal. The "shuttle" service is a van with no air conditioning, and an annoyed driver that may not even show up. The best part about the room was the water pressure in the shower. The bed was hard, extra pillows were hard to come by. After one day, the key did not work and had to be fixed. Bathroom door did not lock. A train constantly came by blowing the horn. There are a lot of other properties in the area, go with one of them. The only reason it gets one star is because zero stars is not an option.More</t>
   </si>
   <si>
+    <t>Mandy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r217070305-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -760,6 +880,9 @@
     <t>07/23/2014</t>
   </si>
   <si>
+    <t>Colby W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r214600725-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -778,6 +901,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Ariel L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r213820175-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -796,6 +922,9 @@
     <t>The lady at the front desk was really nice, but the hotel in general was horrible. Our tv went out and the maintance man came to check why the tv stopped working. Told us that he had to switch the tv out with another room but never came back. The rate was decent but the heat smelled like burning wood. The sink was stopped up and water wouldn't go down. Some of the outlets didn't work and the refrigerator did not get cold. The water in the shower got extremely hot while already in the shower. We barely got towels and when they cleaned they only took out the trash. The train ran all night long and it was so loudMore</t>
   </si>
   <si>
+    <t>Stacey C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r213074968-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -805,6 +934,9 @@
     <t>07/01/2014</t>
   </si>
   <si>
+    <t>Disgusted G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r210826438-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -814,6 +946,9 @@
     <t>06/17/2014</t>
   </si>
   <si>
+    <t>Keith M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r209892432-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -823,6 +958,9 @@
     <t>06/11/2014</t>
   </si>
   <si>
+    <t>Paul H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r201737773-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -841,6 +979,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>ChuckBrooks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r197532519-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -859,6 +1000,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Nathiliyiah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r196629208-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -874,6 +1018,9 @@
     <t>The staff was very professional &amp; obtained great customer service. The girls on housekeeping duty was just great. My room was very clean and bug free. I enjoyed the breakfast, and had good night sleep. Would i stay again?  That's not even a question. Definitely!</t>
   </si>
   <si>
+    <t>Beverly R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r196236524-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -886,6 +1033,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Amber M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r189893411-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -904,6 +1054,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Loretta L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r189799594-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -913,6 +1066,9 @@
     <t>01/05/2014</t>
   </si>
   <si>
+    <t>Kristen T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r186667471-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -928,6 +1084,9 @@
     <t>The motel was close to the stadium, that is the ONLY plus.  We did not feel safe at all at this hotel.  There was a fight between to women outside and late at night a man was selling meat out of the back of his truck, weird.  The room next to us was doing interviews for drivers so people were coming and going constantly.  Beds had no bugs, only the shower.  Spend a little extra cash and stay some place else,  its not worth risking your life.</t>
   </si>
   <si>
+    <t>Andres S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r186581203-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -940,6 +1099,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>George G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r185254860-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -949,6 +1111,9 @@
     <t>11/19/2013</t>
   </si>
   <si>
+    <t>Maribel G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r183402787-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -967,6 +1132,9 @@
     <t>The gaping hole where the refrigerator should have been was our first hint. There were holes in the ceiling from what I can only assume was a leak. My husband is handicapped (wears a leg prosthetic) and our room was on the second floor, there were no elevators or ramps to the second floor. Isn't that a violation of the Disabilities Act? The bathroom wasn't as clean as it could have been (hair on the floor and toothpaste spots on the sink faucet). If you want to go to bed early, are a light sleeper, or want to sleep late -don't stay here. The train that runs in front of the hotel (and I mean IN FRONT) will sound off its horn until 23:00 (11 pm) and starts up again at 06:00 am. Continental breakfast is a choice of oatmeal, bite size muffins, toast or cereal. However, there is a decent restaurant attached to the hotel. I can honestly say that the only saving grace for this hotel is that the staffing are courteous and friendly.More</t>
   </si>
   <si>
+    <t>MaryJane L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r182279334-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -994,6 +1162,9 @@
     <t>Hotel was very, very helpful in getting me to my conference and back to Hotel in a timely manner.  They were outstanding in my shuttle service, I didn't have to wait on them over 10 minutes after calling for service.  Very Friendly and Personal Service.  Any thing I requested was promptly taken care of.More</t>
   </si>
   <si>
+    <t>Vincent J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r182002350-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1012,6 +1183,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Redbird S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r180461287-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1036,6 +1210,9 @@
     <t>I would only stay here as a last resort. The room smelled musty and the pillow case and towels were stained!   More</t>
   </si>
   <si>
+    <t>Gregory J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r179761468-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1054,6 +1231,9 @@
     <t>Will not stay at this Days Inn again. Half of the equipment within the motel did not work. Doors, lights, hot tub, TV. Breakfast was a choice of  two types of dry cereal and two types of bread.More</t>
   </si>
   <si>
+    <t>Stacy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r179507402-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1072,6 +1252,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Mark L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r172391832-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1096,6 +1279,9 @@
     <t>Not as good since electric plugs not working eventhose the lamps not turn on and the bathtub is peeling off .   Too much noise walk pass so try to sleep at night.  The foods for breakfast not enough and make me sick and been sick for two days.More</t>
   </si>
   <si>
+    <t>Johni W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r172113708-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1111,6 +1297,9 @@
     <t>Responded September 28, 2013</t>
   </si>
   <si>
+    <t>Hunter M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r171399553-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1120,6 +1309,9 @@
     <t>08/08/2013</t>
   </si>
   <si>
+    <t>Cynthia W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r169875377-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1132,6 +1324,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Dhruv522</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r167808120-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1147,6 +1342,9 @@
     <t>I stayed on 16-Jul 2013. Found the room, microwave +fridge facilities in room and free breakfast excellent. free Internet speed in room was 5 mbps. Very quite and clean area. will like to come here again. best hotel in the area for self driven vehicles.</t>
   </si>
   <si>
+    <t>Jesus R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r166958806-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1156,6 +1354,9 @@
     <t>07/09/2013</t>
   </si>
   <si>
+    <t>Savedtothebone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r164707453-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1171,6 +1372,9 @@
     <t>The rooms where in decent xondition .  It is located in an industrial area and very close to a train tracks that is busy all night long. Was told that they are under new management and working on upgrading to new carpets and furniture.  Overall good service and experience</t>
   </si>
   <si>
+    <t>Cathy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r164239834-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1189,6 +1393,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Lotasha D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r164217246-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1198,6 +1405,9 @@
     <t>06/16/2013</t>
   </si>
   <si>
+    <t>Phillip1957</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r160408385-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1213,6 +1423,9 @@
     <t xml:space="preserve">Excellent location, nice clean rooms and excellent customer service. The Days Inn offers any facility you need for a pleasant and comfy stay: clean and spacious rooms with free wifi, a swimming pool with ample space to relax in the pool area, a childrens' playground and a friendly and large lobby. Breakfast is served from 7:00 a. m. The coffee is excellent, and the breakfast buffet offers everything for a great day to start your activities in the Arlington area. </t>
   </si>
   <si>
+    <t>JoBe1904</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r159720844-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1234,6 +1447,9 @@
     <t>An excellent location.All the major attractions in Arlington (e. g. Six Flags Over Texas, Dallas Cowboy Stadium, Baseball Stadium – home of the Rexas Rangers) are easy to reach, even in a walking distance. Or it takes no longer than 10 minutes by car (provided any traffic light is red !) Though the Arlington Shopping Mall 100 m away from the Days Inn is closed now you will find a WalMart adjacent to the Dallas Cowboys Stadium.Don't bother about the railway line on the opposite street. Sometimes there are locomotives blowing their horns even at night, but after a whole day full of new impressions and activities you feel so tired that you overhear the noise. The Days Inn offers any facility you need for a pleasant and comfy stay: clean and spacious rooms with free wifi, a swimming pool with ample space to relax in the pool area, a childrens' playground and a friendly and large lobby. Breakfast is served from 7:00 a. m. The coffee is excellent, and the breakfast buffet offers everything for a great day to start your activities in the Arlington area. Very friendly and helpful staff. During my stay (5 nights)  I enjoyed the evenings in the lobby to talk to the friendly staff members.More</t>
   </si>
   <si>
+    <t>Randy V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r156308033-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1246,6 +1462,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Donna S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r153882446-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1255,6 +1474,9 @@
     <t>03/06/2013</t>
   </si>
   <si>
+    <t>rascalman1980</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r146594092-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1270,6 +1492,9 @@
     <t>This is like a hookers hotel without the hookers. The carpet is terrible and rooms smell.  A freaking freight train blows through here whisteling all night long passing through traffic.. Ugh... no sleep!  Run away! Ever watched my cousin Vinny movie? Thats nothing compared to this. . Very dirty!  I wouldn't bring a dirty skank in this room, thats how bad it is..</t>
   </si>
   <si>
+    <t>EVA R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r142852780-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1282,6 +1507,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>LANDON L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r142157939-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1297,6 +1525,9 @@
     <t>the room stank from a musty smell the stink stayed on my belonging for 2-3 days after i left  dont stay it is bad</t>
   </si>
   <si>
+    <t>CHRISTIAN G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r142021277-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1315,6 +1546,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>MAURICIO M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r142019741-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1327,6 +1561,9 @@
     <t>Cleaner rooms. Clean behind the sofa and under the dressers and night stands.  Lobby had cracks in the walls and paint was chipping off.</t>
   </si>
   <si>
+    <t>PinkDragonPrincess</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r132085398-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1345,6 +1582,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>crissyggirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r132058757-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1360,6 +1600,9 @@
     <t>The pool was dirty with leaves and trash. The hot tub was even more dirty and the water had a bad odor. The hotel is run down and right next to the train tracks. I planned on eating the continental breakfast  provided,  however it consisted of cherrios or cornflakes and bad coffee. I also planned on using the shuttle provided by the hotel, but when i asked about it, no one working the front desk could understand english. So we ended up having to pay to park everywhere.  The coffee pot was broken, the bathroom door wouldn't stay shut.....need I say more</t>
   </si>
   <si>
+    <t>myrtle1949</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r130746437-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1378,6 +1621,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>NothappyRiverdale_UT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r120213793-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1399,6 +1645,9 @@
     <t>Dirty, This is what I think of this disgusting Rodent infested ghetto place. We stayed here due to at the time there was an NFL and NBA game going and all places were booked. We booked four rooms for two nights and were only provided with three rooms for one night. Spend an average of three hours getting the mess straighten out and finally got a fourth room of which was filthy with rodent droppings in the tub and on the bed sheets and the outlets and AC did not work. We’re informed they were booked and did not have any more rooms. When I went back to complain they offered keys to three other rooms to pick from of which the only good thing good about them was the AC and outlets worked but were still as filthy as the others. My iPhone was fried while I plugged it into the outlet to get charged and while a complain was turned in to management they could care less stating they were in the process of bankruptcy and there was nothing they could do about it. Informed management that I was reporting then to the Better Business Bureau and to the Health Department and management response was OH-WELL. We would have been better off staying in our cars.  The restaurant was also filthy with roaches running around. So if you plan to stay there Good-Luck. Oh and the pool was...Dirty, This is what I think of this disgusting Rodent infested ghetto place. We stayed here due to at the time there was an NFL and NBA game going and all places were booked. We booked four rooms for two nights and were only provided with three rooms for one night. Spend an average of three hours getting the mess straighten out and finally got a fourth room of which was filthy with rodent droppings in the tub and on the bed sheets and the outlets and AC did not work. We’re informed they were booked and did not have any more rooms. When I went back to complain they offered keys to three other rooms to pick from of which the only good thing good about them was the AC and outlets worked but were still as filthy as the others. My iPhone was fried while I plugged it into the outlet to get charged and while a complain was turned in to management they could care less stating they were in the process of bankruptcy and there was nothing they could do about it. Informed management that I was reporting then to the Better Business Bureau and to the Health Department and management response was OH-WELL. We would have been better off staying in our cars.  The restaurant was also filthy with roaches running around. So if you plan to stay there Good-Luck. Oh and the pool was about half full of water with all kinds of stuff in it.More</t>
   </si>
   <si>
+    <t>lsuguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r117603046-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1412,6 +1661,9 @@
   </si>
   <si>
     <t>The manager was awful. Took us 4 hours to get into our room. We got a knock in the middle of the night from a pimp asking for his lady friend. We left and never got a refund. Stay away!!!!</t>
+  </si>
+  <si>
+    <t>RanoFR</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r117155612-Rodeway_Inn-Arlington_Texas.html</t>
@@ -1451,6 +1703,9 @@
 Bottomline of...We traveled there on a vacation trip to go to 6 flags1. Their free shuttle to 6 flags is a scam and doesn't run.2. Rude front clerk said we didn't have a reservation with Priceline.3. Rude front clerk ignored us for 10 minutes after throwing back our priceline reservation to us, more worried about joking on the phone in some language than trying to help us figure out why the reservation didn't go through.4. After we proved him we did have a reservation with Priceline, Rude front clerk yelled at us "why did you give the wrong name?". The wrong name in question was the name under which the reservation had actually been made. Rude front clerk was just looking at the BILLING name instead... When I confronted Rude front clerk about the fact that he was just being plain rude, rude front clerk said he wasn't. 5. Rude front clerk gave us a key to a room with cockroaches in the sink and spiders in the bath tub.6. We realized rude front clerk had not taken my card for verification purposes but actually charged us A SECOND TIME, even though we had paid through priceline.7. When we confronted rude front clerk about it, he said that priceline had not paid them and that we needed to call priceline for our money back. The money is still not back a week after.Bottomline of the story : The worst hotel staff we've ever had to deal with. They need to be fired.  Add to this that the hotel is by a railway with extremely loud trains all night...More</t>
   </si>
   <si>
+    <t>Jml77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r115201664-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1472,6 +1727,9 @@
     <t>VERY OLD motel in need of repairs!! Shower knob fell off went I went to use it. The toilet didn't flush all the time. Ice machine was empty most of the time, and the other one was broke. Motel is RIGHT across the street from railroad tracks, train is very loud and comes through often, all hours. Didn't sleep well at all. DO NOT rely on the shuttle.... the maintenance is the driver, and if he's busy, you will have to wait where you are! Lady at front desk was VERY rude, doesn't seem to care about the customers. Parking sucks!! Not much space for parking. The only thing I liked about my stay was the maintenance man being so helpful!! He was a really nice guy!! I saw others reviews where they stated there were bed bugs. I did search, and didn't see signs of any, thankfully!  I will not be back to stay. Motel 6 would have been a better stay!More</t>
   </si>
   <si>
+    <t>cburt357</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r115199380-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1487,6 +1745,9 @@
     <t>This was suppose to be a weekend away with friends, but turned into a stay in hell. we checked into our hotel and things seemed alright. just another cheap hotel. the manager was extremely nice. he gave us a ride to 6 flags in his car because the shuttle driver was in dallas. when we were ready to come home i called the hotel 5 or 6 times, with no answer. with the help of guest services at 6 flags they got a hold of the desk clerk, who told us we either have to pay for a taxi or wait till the shuttle was back from dallas and then hung up the phone on me. needless to say we got the taxi. by this point we were livid. when we got back to the hotel we were ready to leave, but trying to reason with the clerk was impossible. she was RUDE, didnt speak english,and constantly interupted. she promised the manager would pay for the taxi the next day....TAXIS DONT WORK THAT WAY. she told us that we couldnt get our money back for our nights, since we wanted to leave, and app. it stated in the contract that we couldnt get our money back which was a lie the contract said nothing of the sort. after trying to reason with her she decided to call the cops on us for doing nothing!!! my friends and i were not...This was suppose to be a weekend away with friends, but turned into a stay in hell. we checked into our hotel and things seemed alright. just another cheap hotel. the manager was extremely nice. he gave us a ride to 6 flags in his car because the shuttle driver was in dallas. when we were ready to come home i called the hotel 5 or 6 times, with no answer. with the help of guest services at 6 flags they got a hold of the desk clerk, who told us we either have to pay for a taxi or wait till the shuttle was back from dallas and then hung up the phone on me. needless to say we got the taxi. by this point we were livid. when we got back to the hotel we were ready to leave, but trying to reason with the clerk was impossible. she was RUDE, didnt speak english,and constantly interupted. she promised the manager would pay for the taxi the next day....TAXIS DONT WORK THAT WAY. she told us that we couldnt get our money back for our nights, since we wanted to leave, and app. it stated in the contract that we couldnt get our money back which was a lie the contract said nothing of the sort. after trying to reason with her she decided to call the cops on us for doing nothing!!! my friends and i were not treated like guests and i would not recommend staying at this hotel......EVER!!!P.S if you do decide to stay dont expect sleep, although we didnt find bed bugs there was train after train after train going by blowing a VERY loud whistle!More</t>
   </si>
   <si>
+    <t>AngelaQueenmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r115056120-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1505,6 +1766,9 @@
     <t>My family/I stayed at this hotel before and at one time it was great.  We checked in on July 2 and stayed 2 nights.  During our check in the lady at the front desk was rude.  I called down to let her know that I didn't have enough towels. She gave me maid service number and told me to call them.  The next morning my son and I went down to breakfast, I stopped at the desk she was going off on a customer.  I asked her where the breakfast room was, she rolled her eyes and kept walking. The next morning, at check out I asked for a receipt and she didn't want to really give me one.  I couldn't hold it any longer and let her have it.  The men that work at the hotel was fine! HARJINDER KABARWAI (the lady) needs to be removed from the front desk and put behind the scenes.  My rooms were not the best, I can put up with the train blowing all night but rudeness no!  I had 4 rooms in this place (RM 216, 214, 218, &amp; 207). If you want to contact me the hotel has my information. At $55.00 a night you get what you pay for.  Angela PalmerMore</t>
   </si>
   <si>
+    <t>allbusiness56567</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r87613959-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1523,6 +1787,9 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>picky524</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r69279042-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1544,6 +1811,9 @@
     <t>cheaper is NOT always better, especially in big cities like Arlington. This is not even worth 5 dollars a night in my opinion. Right when we pulled in I knew it was going to be bad because of the neighborhood and the loud train right across the road. When we first walked into the hotel room the smell hit us and it was terrible! It smelled like mildew and we walk in and there is green mold all over the walls! SICK! literally im sure that room had all kinds of airborn illnesses including asbestos. We knew immediately that we MUST get our money back and go somewhere else. We ended up at the Comfort Suites it was VERY nice.More</t>
   </si>
   <si>
+    <t>vkc37</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r41326502-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1562,6 +1832,9 @@
     <t>September 2009</t>
   </si>
   <si>
+    <t>MELISSA07302005</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r32872434-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1589,6 +1862,9 @@
     <t>i would not recommend that anyone stay at this hotel.......it is not very clean.......i could go on and on about all of the things that went wrong here people, but, i have got to get to work... i will tell you the NUMBER ONE REASON WHY:there is a TRAIN........... oh yes, directly across the street.... and i will tell you now that it only seems to run at night... ABOUT EVERY HALF HOUR THRU THE NIGHT........it sounds like it is going RIGHT THRU YOUR ROOM.........so, if you have youngsters... like i do.... (2 years old)  you already know how tough it can be to get them to go to sleep, right?  imagine, that you are on vacation..... it is already way past their bed time... again, you are on vacation... they are so wound up, however, knowing if they sat still for even one minute, they would just pass right out... they are fighting it... finally, go to sleep, only to be awakend, two seconds later by a freakin FREIGHT TRAIN  that sounds like it is running thru your hotel room.......don't stay here people....More</t>
   </si>
   <si>
+    <t>kswtexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r32446514-Rodeway_Inn-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1602,6 +1878,9 @@
   </si>
   <si>
     <t>We were in town for the Rangers game. We had two rooms, one of which the phone did not work. The other had a hole in the bathroom wall like someone put their fist through it. The blow dryer did not work. They did not leave any clean towels in one of the rooms, nor did they have any clean ones at the front desk. Not to mention they are right across the street from a train depot. Don't expect to get much sleep in between train horns all night. AND I DO MEAN ALL NIGHT.</t>
+  </si>
+  <si>
+    <t>bemerson</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d73771-r17151360-Rodeway_Inn-Arlington_Texas.html</t>
@@ -2127,43 +2406,47 @@
       <c r="A2" t="n">
         <v>3520</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>176187</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2181,50 +2464,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>3520</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>5773</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2238,50 +2525,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3520</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>1417</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -2305,50 +2596,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3520</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>176188</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -2372,50 +2667,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>3520</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>176189</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
       </c>
-      <c r="L6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>74</v>
-      </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -2439,50 +2738,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>3520</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>12637</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2500,50 +2803,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>3520</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>176190</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2557,35 +2864,39 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>3520</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>176191</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -2593,10 +2904,10 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -2617,51 +2928,52 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>3520</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>15058</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
         <v>101</v>
-      </c>
-      <c r="J10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>99</v>
-      </c>
-      <c r="O10" t="s">
-        <v>94</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -2681,50 +2993,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>3520</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -2748,35 +3064,39 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>3520</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>22026</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -2784,10 +3104,10 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -2808,51 +3128,52 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>3520</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>176192</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2872,50 +3193,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>3520</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>176193</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -2939,35 +3264,39 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>3520</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>176194</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -2975,10 +3304,10 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -2999,51 +3328,52 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>3520</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>176195</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -3067,50 +3397,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>3520</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>176196</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="O17" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -3134,35 +3468,39 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>3520</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>176197</v>
+      </c>
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s"/>
@@ -3170,10 +3508,10 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -3194,36 +3532,37 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
-      <c r="Y18" t="s"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>3520</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>176198</v>
+      </c>
+      <c r="C19" t="s">
+        <v>160</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="J19" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
@@ -3231,10 +3570,10 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -3255,51 +3594,52 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>3520</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>14679</v>
+      </c>
+      <c r="C20" t="s">
+        <v>164</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="J20" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="K20" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="L20" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3319,50 +3659,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>3520</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>176199</v>
+      </c>
+      <c r="C21" t="s">
+        <v>171</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="J21" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="K21" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O21" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3386,50 +3730,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>3520</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>176200</v>
+      </c>
+      <c r="C22" t="s">
+        <v>177</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="J22" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="K22" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="L22" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P22" t="n">
         <v>2</v>
@@ -3453,35 +3801,39 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>3520</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>176201</v>
+      </c>
+      <c r="C23" t="s">
+        <v>182</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="J23" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -3489,10 +3841,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -3513,36 +3865,37 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>3520</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>176202</v>
+      </c>
+      <c r="C24" t="s">
+        <v>186</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="J24" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s"/>
@@ -3550,10 +3903,10 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -3574,51 +3927,52 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>3520</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>11115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>189</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="J25" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="K25" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="L25" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -3642,50 +3996,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>3520</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>2458</v>
+      </c>
+      <c r="C26" t="s">
+        <v>195</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="J26" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="K26" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3703,50 +4061,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>3520</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>34618</v>
+      </c>
+      <c r="C27" t="s">
+        <v>202</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="J27" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="K27" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3760,50 +4122,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>3520</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>176203</v>
+      </c>
+      <c r="C28" t="s">
+        <v>209</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="J28" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="K28" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -3827,48 +4193,52 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>3520</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>50398</v>
+      </c>
+      <c r="C29" t="s">
+        <v>217</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="J29" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -3892,35 +4262,39 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>3520</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>176204</v>
+      </c>
+      <c r="C30" t="s">
+        <v>223</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="J30" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s"/>
@@ -3928,10 +4302,10 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>2</v>
@@ -3952,36 +4326,37 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>3520</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>176205</v>
+      </c>
+      <c r="C31" t="s">
+        <v>228</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="J31" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
@@ -3989,10 +4364,10 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="O31" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -4013,51 +4388,52 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
-      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>3520</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>176206</v>
+      </c>
+      <c r="C32" t="s">
+        <v>231</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="J32" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="K32" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="L32" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4071,35 +4447,39 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>3520</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>9510</v>
+      </c>
+      <c r="C33" t="s">
+        <v>237</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="J33" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s"/>
@@ -4107,10 +4487,10 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="O33" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -4131,51 +4511,52 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>3520</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>176207</v>
+      </c>
+      <c r="C34" t="s">
+        <v>241</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="J34" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="K34" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="L34" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4195,50 +4576,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>3520</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>176208</v>
+      </c>
+      <c r="C35" t="s">
+        <v>247</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
+        <v>249</v>
+      </c>
+      <c r="J35" t="s">
+        <v>250</v>
+      </c>
+      <c r="K35" t="s">
+        <v>251</v>
+      </c>
+      <c r="L35" t="s">
+        <v>252</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
         <v>215</v>
       </c>
-      <c r="J35" t="s">
-        <v>216</v>
-      </c>
-      <c r="K35" t="s">
-        <v>217</v>
-      </c>
-      <c r="L35" t="s">
-        <v>218</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="s">
-        <v>188</v>
-      </c>
       <c r="O35" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4258,35 +4643,39 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>3520</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>106728</v>
+      </c>
+      <c r="C36" t="s">
+        <v>253</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="J36" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
@@ -4294,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="O36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4318,51 +4707,52 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>3520</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>176209</v>
+      </c>
+      <c r="C37" t="s">
+        <v>257</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="J37" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="K37" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="L37" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -4382,41 +4772,45 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>3520</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>176210</v>
+      </c>
+      <c r="C38" t="s">
+        <v>264</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="J38" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="K38" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="L38" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -4445,35 +4839,39 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>3520</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>3909</v>
+      </c>
+      <c r="C39" t="s">
+        <v>270</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="J39" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
@@ -4481,10 +4879,10 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -4505,51 +4903,52 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>3520</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>2620</v>
+      </c>
+      <c r="C40" t="s">
+        <v>275</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="J40" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="K40" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="L40" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -4569,35 +4968,39 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>3520</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>40361</v>
+      </c>
+      <c r="C41" t="s">
+        <v>282</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="J41" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -4605,10 +5008,10 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4629,51 +5032,52 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>3520</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>176211</v>
+      </c>
+      <c r="C42" t="s">
+        <v>286</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="J42" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="K42" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="L42" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="O42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -4693,50 +5097,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>3520</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>176212</v>
+      </c>
+      <c r="C43" t="s">
+        <v>293</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="J43" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="K43" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="L43" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -4760,35 +5168,39 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>3520</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>65208</v>
+      </c>
+      <c r="C44" t="s">
+        <v>300</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="J44" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
@@ -4796,10 +5208,10 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -4820,49 +5232,50 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>3520</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>176213</v>
+      </c>
+      <c r="C45" t="s">
+        <v>304</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="J45" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="O45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -4886,48 +5299,52 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>3520</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>8479</v>
+      </c>
+      <c r="C46" t="s">
+        <v>308</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="J46" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="O46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -4951,50 +5368,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>3520</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
+        <v>312</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>267</v>
+        <v>313</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="J47" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="K47" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="L47" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="O47" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -5018,50 +5439,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>3520</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>68136</v>
+      </c>
+      <c r="C48" t="s">
+        <v>319</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="J48" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="K48" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="L48" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5085,41 +5510,45 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>3520</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>176214</v>
+      </c>
+      <c r="C49" t="s">
+        <v>326</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="J49" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="K49" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="L49" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
@@ -5148,35 +5577,39 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>3520</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>7231</v>
+      </c>
+      <c r="C50" t="s">
+        <v>332</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="J50" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s"/>
@@ -5184,10 +5617,10 @@
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5208,51 +5641,52 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
-      <c r="Y50" t="s"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>3520</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>11607</v>
+      </c>
+      <c r="C51" t="s">
+        <v>337</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>289</v>
+        <v>339</v>
       </c>
       <c r="J51" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="K51" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="L51" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5276,35 +5710,39 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>3520</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>176215</v>
+      </c>
+      <c r="C52" t="s">
+        <v>344</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="J52" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
@@ -5312,10 +5750,10 @@
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="O52" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5336,51 +5774,52 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>3520</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>53176</v>
+      </c>
+      <c r="C53" t="s">
+        <v>348</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="J53" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="K53" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="L53" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -5404,35 +5843,39 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>3520</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>176216</v>
+      </c>
+      <c r="C54" t="s">
+        <v>354</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c r="J54" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s"/>
@@ -5440,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="O54" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P54" t="n">
         <v>2</v>
@@ -5464,36 +5907,37 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>3520</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>15849</v>
+      </c>
+      <c r="C55" t="s">
+        <v>359</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="J55" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s"/>
@@ -5501,10 +5945,10 @@
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="O55" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -5525,51 +5969,52 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>3520</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>176217</v>
+      </c>
+      <c r="C56" t="s">
+        <v>363</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>309</v>
+        <v>364</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>310</v>
+        <v>365</v>
       </c>
       <c r="J56" t="s">
-        <v>311</v>
+        <v>366</v>
       </c>
       <c r="K56" t="s">
-        <v>312</v>
+        <v>367</v>
       </c>
       <c r="L56" t="s">
-        <v>313</v>
+        <v>368</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="O56" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -5593,50 +6038,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>314</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>3520</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>176218</v>
+      </c>
+      <c r="C57" t="s">
+        <v>370</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="J57" t="s">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="K57" t="s">
-        <v>318</v>
+        <v>374</v>
       </c>
       <c r="L57" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="O57" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5658,56 +6107,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="X57" t="s">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="Y57" t="s">
-        <v>323</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>3520</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>33774</v>
+      </c>
+      <c r="C58" t="s">
+        <v>380</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>324</v>
+        <v>381</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="J58" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="K58" t="s">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="L58" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -5731,50 +6184,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>3520</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>176219</v>
+      </c>
+      <c r="C59" t="s">
+        <v>387</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="J59" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="K59" t="s">
-        <v>333</v>
+        <v>391</v>
       </c>
       <c r="L59" t="s">
-        <v>334</v>
+        <v>392</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="O59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -5796,56 +6253,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>335</v>
+        <v>393</v>
       </c>
       <c r="X59" t="s">
-        <v>336</v>
+        <v>394</v>
       </c>
       <c r="Y59" t="s">
-        <v>337</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>3520</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>19061</v>
+      </c>
+      <c r="C60" t="s">
+        <v>396</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>339</v>
+        <v>398</v>
       </c>
       <c r="J60" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="K60" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="L60" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="O60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -5867,56 +6328,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>335</v>
+        <v>393</v>
       </c>
       <c r="X60" t="s">
-        <v>336</v>
+        <v>394</v>
       </c>
       <c r="Y60" t="s">
-        <v>343</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>3520</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>4024</v>
+      </c>
+      <c r="C61" t="s">
+        <v>403</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="J61" t="s">
-        <v>346</v>
+        <v>406</v>
       </c>
       <c r="K61" t="s">
-        <v>347</v>
+        <v>407</v>
       </c>
       <c r="L61" t="s">
-        <v>348</v>
+        <v>408</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>349</v>
+        <v>409</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>2</v>
@@ -5940,50 +6405,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>348</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>3520</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>790</v>
+      </c>
+      <c r="C62" t="s">
+        <v>410</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>350</v>
+        <v>411</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>351</v>
+        <v>412</v>
       </c>
       <c r="J62" t="s">
-        <v>352</v>
+        <v>413</v>
       </c>
       <c r="K62" t="s">
-        <v>353</v>
+        <v>414</v>
       </c>
       <c r="L62" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
@@ -6005,54 +6474,58 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>355</v>
+        <v>416</v>
       </c>
       <c r="X62" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="Y62" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>3520</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>176220</v>
+      </c>
+      <c r="C63" t="s">
+        <v>419</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>358</v>
+        <v>420</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>359</v>
+        <v>421</v>
       </c>
       <c r="J63" t="s">
-        <v>360</v>
+        <v>422</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6074,41 +6547,45 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="X63" t="s">
-        <v>362</v>
+        <v>424</v>
       </c>
       <c r="Y63" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>3520</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>176221</v>
+      </c>
+      <c r="C64" t="s">
+        <v>425</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>363</v>
+        <v>426</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>364</v>
+        <v>427</v>
       </c>
       <c r="J64" t="s">
-        <v>365</v>
+        <v>428</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s"/>
@@ -6116,10 +6593,10 @@
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="O64" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
@@ -6140,49 +6617,50 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
-      <c r="Y64" t="s"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>3520</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>55697</v>
+      </c>
+      <c r="C65" t="s">
+        <v>429</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="J65" t="s">
-        <v>368</v>
+        <v>432</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>369</v>
+        <v>433</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>2</v>
@@ -6206,50 +6684,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>3520</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>176222</v>
+      </c>
+      <c r="C66" t="s">
+        <v>434</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>370</v>
+        <v>435</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>371</v>
+        <v>436</v>
       </c>
       <c r="J66" t="s">
-        <v>372</v>
+        <v>437</v>
       </c>
       <c r="K66" t="s">
-        <v>373</v>
+        <v>438</v>
       </c>
       <c r="L66" t="s">
-        <v>374</v>
+        <v>439</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>369</v>
+        <v>433</v>
       </c>
       <c r="O66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6273,35 +6755,39 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>374</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>3520</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>27450</v>
+      </c>
+      <c r="C67" t="s">
+        <v>440</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="J67" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s"/>
@@ -6309,10 +6795,10 @@
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>369</v>
+        <v>433</v>
       </c>
       <c r="O67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6333,42 +6819,43 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
-      <c r="Y67" t="s"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>3520</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>176223</v>
+      </c>
+      <c r="C68" t="s">
+        <v>444</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>378</v>
+        <v>445</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>379</v>
+        <v>446</v>
       </c>
       <c r="J68" t="s">
-        <v>380</v>
+        <v>447</v>
       </c>
       <c r="K68" t="s">
-        <v>381</v>
+        <v>448</v>
       </c>
       <c r="L68" t="s">
-        <v>382</v>
+        <v>449</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
@@ -6397,50 +6884,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>382</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>3520</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>32280</v>
+      </c>
+      <c r="C69" t="s">
+        <v>450</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>383</v>
+        <v>451</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>384</v>
+        <v>452</v>
       </c>
       <c r="J69" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="K69" t="s">
-        <v>386</v>
+        <v>454</v>
       </c>
       <c r="L69" t="s">
-        <v>387</v>
+        <v>455</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>388</v>
+        <v>456</v>
       </c>
       <c r="O69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -6464,35 +6955,39 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>387</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>3520</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>176224</v>
+      </c>
+      <c r="C70" t="s">
+        <v>457</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>390</v>
+        <v>459</v>
       </c>
       <c r="J70" t="s">
-        <v>391</v>
+        <v>460</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -6500,10 +6995,10 @@
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>388</v>
+        <v>456</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -6524,42 +7019,43 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>3520</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>176225</v>
+      </c>
+      <c r="C71" t="s">
+        <v>461</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>392</v>
+        <v>462</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>393</v>
+        <v>463</v>
       </c>
       <c r="J71" t="s">
-        <v>394</v>
+        <v>464</v>
       </c>
       <c r="K71" t="s">
-        <v>395</v>
+        <v>465</v>
       </c>
       <c r="L71" t="s">
-        <v>396</v>
+        <v>466</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
@@ -6588,50 +7084,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>396</v>
+        <v>466</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>3520</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>176226</v>
+      </c>
+      <c r="C72" t="s">
+        <v>467</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>397</v>
+        <v>468</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>398</v>
+        <v>469</v>
       </c>
       <c r="J72" t="s">
-        <v>399</v>
+        <v>470</v>
       </c>
       <c r="K72" t="s">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="L72" t="s">
-        <v>401</v>
+        <v>472</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>402</v>
+        <v>473</v>
       </c>
       <c r="O72" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6655,35 +7155,39 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>403</v>
+        <v>474</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>3520</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>39251</v>
+      </c>
+      <c r="C73" t="s">
+        <v>475</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>404</v>
+        <v>476</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>405</v>
+        <v>477</v>
       </c>
       <c r="J73" t="s">
-        <v>406</v>
+        <v>478</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s"/>
@@ -6691,10 +7195,10 @@
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>407</v>
+        <v>479</v>
       </c>
       <c r="O73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P73" t="n">
         <v>2</v>
@@ -6715,36 +7219,37 @@
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
-      <c r="Y73" t="s"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>3520</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>4740</v>
+      </c>
+      <c r="C74" t="s">
+        <v>480</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>408</v>
+        <v>481</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>409</v>
+        <v>482</v>
       </c>
       <c r="J74" t="s">
-        <v>410</v>
+        <v>483</v>
       </c>
       <c r="K74" t="s"/>
       <c r="L74" t="s"/>
@@ -6752,10 +7257,10 @@
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>407</v>
+        <v>479</v>
       </c>
       <c r="O74" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -6776,42 +7281,43 @@
       <c r="V74" t="n">
         <v>0</v>
       </c>
-      <c r="W74" t="s"/>
-      <c r="X74" t="s"/>
-      <c r="Y74" t="s"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>3520</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>176227</v>
+      </c>
+      <c r="C75" t="s">
+        <v>484</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>411</v>
+        <v>485</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>412</v>
+        <v>486</v>
       </c>
       <c r="J75" t="s">
-        <v>413</v>
+        <v>487</v>
       </c>
       <c r="K75" t="s">
-        <v>414</v>
+        <v>488</v>
       </c>
       <c r="L75" t="s">
-        <v>415</v>
+        <v>489</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
@@ -6840,35 +7346,39 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>415</v>
+        <v>489</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>3520</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>176228</v>
+      </c>
+      <c r="C76" t="s">
+        <v>490</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>416</v>
+        <v>491</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>417</v>
+        <v>492</v>
       </c>
       <c r="J76" t="s">
-        <v>418</v>
+        <v>493</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s"/>
@@ -6876,10 +7386,10 @@
         <v>2</v>
       </c>
       <c r="N76" t="s">
-        <v>419</v>
+        <v>494</v>
       </c>
       <c r="O76" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P76" t="n">
         <v>2</v>
@@ -6900,51 +7410,52 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
-      <c r="Y76" t="s"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>3520</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>176229</v>
+      </c>
+      <c r="C77" t="s">
+        <v>495</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>420</v>
+        <v>496</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>421</v>
+        <v>497</v>
       </c>
       <c r="J77" t="s">
-        <v>422</v>
+        <v>498</v>
       </c>
       <c r="K77" t="s">
-        <v>423</v>
+        <v>499</v>
       </c>
       <c r="L77" t="s">
-        <v>424</v>
+        <v>500</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>419</v>
+        <v>494</v>
       </c>
       <c r="O77" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -6968,50 +7479,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>424</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>3520</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>176230</v>
+      </c>
+      <c r="C78" t="s">
+        <v>501</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>425</v>
+        <v>502</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>426</v>
+        <v>503</v>
       </c>
       <c r="J78" t="s">
-        <v>427</v>
+        <v>504</v>
       </c>
       <c r="K78" t="s">
-        <v>428</v>
+        <v>505</v>
       </c>
       <c r="L78" t="s">
-        <v>429</v>
+        <v>506</v>
       </c>
       <c r="M78" t="n">
         <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>430</v>
+        <v>507</v>
       </c>
       <c r="O78" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P78" t="n">
         <v>2</v>
@@ -7035,50 +7550,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>429</v>
+        <v>506</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>3520</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>176231</v>
+      </c>
+      <c r="C79" t="s">
+        <v>508</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>431</v>
+        <v>509</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>432</v>
+        <v>510</v>
       </c>
       <c r="J79" t="s">
-        <v>427</v>
+        <v>504</v>
       </c>
       <c r="K79" t="s">
-        <v>433</v>
+        <v>511</v>
       </c>
       <c r="L79" t="s">
-        <v>434</v>
+        <v>512</v>
       </c>
       <c r="M79" t="n">
         <v>2</v>
       </c>
       <c r="N79" t="s">
-        <v>430</v>
+        <v>507</v>
       </c>
       <c r="O79" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7102,50 +7621,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>434</v>
+        <v>512</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>3520</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>176232</v>
+      </c>
+      <c r="C80" t="s">
+        <v>513</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>435</v>
+        <v>514</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>436</v>
+        <v>515</v>
       </c>
       <c r="J80" t="s">
-        <v>437</v>
+        <v>516</v>
       </c>
       <c r="K80" t="s">
-        <v>438</v>
+        <v>517</v>
       </c>
       <c r="L80" t="s">
-        <v>439</v>
+        <v>518</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>440</v>
+        <v>519</v>
       </c>
       <c r="O80" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P80" t="n">
         <v>1</v>
@@ -7169,50 +7692,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>439</v>
+        <v>518</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>3520</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>176233</v>
+      </c>
+      <c r="C81" t="s">
+        <v>520</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>441</v>
+        <v>521</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>442</v>
+        <v>522</v>
       </c>
       <c r="J81" t="s">
-        <v>443</v>
+        <v>523</v>
       </c>
       <c r="K81" t="s">
-        <v>444</v>
+        <v>524</v>
       </c>
       <c r="L81" t="s">
-        <v>445</v>
+        <v>525</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>440</v>
+        <v>519</v>
       </c>
       <c r="O81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -7236,50 +7763,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>445</v>
+        <v>525</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>3520</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>176234</v>
+      </c>
+      <c r="C82" t="s">
+        <v>526</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>446</v>
+        <v>527</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>447</v>
+        <v>528</v>
       </c>
       <c r="J82" t="s">
-        <v>448</v>
+        <v>529</v>
       </c>
       <c r="K82" t="s">
-        <v>449</v>
+        <v>530</v>
       </c>
       <c r="L82" t="s">
-        <v>450</v>
+        <v>531</v>
       </c>
       <c r="M82" t="n">
         <v>2</v>
       </c>
       <c r="N82" t="s">
-        <v>451</v>
+        <v>532</v>
       </c>
       <c r="O82" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -7303,50 +7834,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>450</v>
+        <v>531</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>3520</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>176235</v>
+      </c>
+      <c r="C83" t="s">
+        <v>533</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>452</v>
+        <v>534</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>453</v>
+        <v>535</v>
       </c>
       <c r="J83" t="s">
-        <v>454</v>
+        <v>536</v>
       </c>
       <c r="K83" t="s">
-        <v>455</v>
+        <v>537</v>
       </c>
       <c r="L83" t="s">
-        <v>456</v>
+        <v>538</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>457</v>
+        <v>539</v>
       </c>
       <c r="O83" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P83" t="n">
         <v>1</v>
@@ -7370,41 +7905,45 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>458</v>
+        <v>540</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>3520</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>176236</v>
+      </c>
+      <c r="C84" t="s">
+        <v>541</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>459</v>
+        <v>542</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>460</v>
+        <v>543</v>
       </c>
       <c r="J84" t="s">
-        <v>461</v>
+        <v>544</v>
       </c>
       <c r="K84" t="s">
-        <v>462</v>
+        <v>545</v>
       </c>
       <c r="L84" t="s">
-        <v>463</v>
+        <v>546</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
@@ -7433,50 +7972,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>463</v>
+        <v>546</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>3520</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>176237</v>
+      </c>
+      <c r="C85" t="s">
+        <v>547</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>464</v>
+        <v>548</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>465</v>
+        <v>549</v>
       </c>
       <c r="J85" t="s">
-        <v>466</v>
+        <v>550</v>
       </c>
       <c r="K85" t="s">
-        <v>467</v>
+        <v>551</v>
       </c>
       <c r="L85" t="s">
-        <v>468</v>
+        <v>552</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
       <c r="N85" t="s">
-        <v>469</v>
+        <v>553</v>
       </c>
       <c r="O85" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P85" t="n">
         <v>1</v>
@@ -7496,50 +8039,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>470</v>
+        <v>554</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>3520</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>176238</v>
+      </c>
+      <c r="C86" t="s">
+        <v>555</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>471</v>
+        <v>556</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>472</v>
+        <v>557</v>
       </c>
       <c r="J86" t="s">
-        <v>473</v>
+        <v>558</v>
       </c>
       <c r="K86" t="s">
-        <v>474</v>
+        <v>559</v>
       </c>
       <c r="L86" t="s">
-        <v>475</v>
+        <v>560</v>
       </c>
       <c r="M86" t="n">
         <v>2</v>
       </c>
       <c r="N86" t="s">
-        <v>476</v>
+        <v>561</v>
       </c>
       <c r="O86" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P86" t="n">
         <v>2</v>
@@ -7559,50 +8106,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>477</v>
+        <v>562</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>3520</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>176239</v>
+      </c>
+      <c r="C87" t="s">
+        <v>563</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>478</v>
+        <v>564</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>479</v>
+        <v>565</v>
       </c>
       <c r="J87" t="s">
-        <v>473</v>
+        <v>558</v>
       </c>
       <c r="K87" t="s">
-        <v>480</v>
+        <v>566</v>
       </c>
       <c r="L87" t="s">
-        <v>481</v>
+        <v>567</v>
       </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
       <c r="N87" t="s">
-        <v>476</v>
+        <v>561</v>
       </c>
       <c r="O87" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P87" t="n">
         <v>2</v>
@@ -7622,50 +8173,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>482</v>
+        <v>568</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>3520</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>176240</v>
+      </c>
+      <c r="C88" t="s">
+        <v>569</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>483</v>
+        <v>570</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>484</v>
+        <v>571</v>
       </c>
       <c r="J88" t="s">
-        <v>485</v>
+        <v>572</v>
       </c>
       <c r="K88" t="s">
-        <v>486</v>
+        <v>573</v>
       </c>
       <c r="L88" t="s">
-        <v>487</v>
+        <v>574</v>
       </c>
       <c r="M88" t="n">
         <v>2</v>
       </c>
       <c r="N88" t="s">
-        <v>476</v>
+        <v>561</v>
       </c>
       <c r="O88" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -7685,50 +8240,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>488</v>
+        <v>575</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>3520</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>176241</v>
+      </c>
+      <c r="C89" t="s">
+        <v>576</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>489</v>
+        <v>577</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>490</v>
+        <v>578</v>
       </c>
       <c r="J89" t="s">
-        <v>491</v>
+        <v>579</v>
       </c>
       <c r="K89" t="s">
-        <v>492</v>
+        <v>580</v>
       </c>
       <c r="L89" t="s">
-        <v>493</v>
+        <v>581</v>
       </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
       <c r="N89" t="s">
-        <v>494</v>
+        <v>582</v>
       </c>
       <c r="O89" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P89" t="n">
         <v>1</v>
@@ -7752,50 +8311,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>493</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>3520</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>176242</v>
+      </c>
+      <c r="C90" t="s">
+        <v>583</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>495</v>
+        <v>584</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>496</v>
+        <v>585</v>
       </c>
       <c r="J90" t="s">
-        <v>497</v>
+        <v>586</v>
       </c>
       <c r="K90" t="s">
-        <v>498</v>
+        <v>587</v>
       </c>
       <c r="L90" t="s">
-        <v>499</v>
+        <v>588</v>
       </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
       <c r="N90" t="s">
-        <v>500</v>
+        <v>589</v>
       </c>
       <c r="O90" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P90" t="n">
         <v>1</v>
@@ -7819,50 +8382,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>501</v>
+        <v>590</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>3520</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>176243</v>
+      </c>
+      <c r="C91" t="s">
+        <v>591</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>502</v>
+        <v>592</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>503</v>
+        <v>593</v>
       </c>
       <c r="J91" t="s">
-        <v>504</v>
+        <v>594</v>
       </c>
       <c r="K91" t="s">
-        <v>505</v>
+        <v>595</v>
       </c>
       <c r="L91" t="s">
-        <v>506</v>
+        <v>596</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>507</v>
+        <v>597</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -7886,50 +8453,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>506</v>
+        <v>596</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>3520</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>176244</v>
+      </c>
+      <c r="C92" t="s">
+        <v>598</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>508</v>
+        <v>599</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>509</v>
+        <v>600</v>
       </c>
       <c r="J92" t="s">
-        <v>510</v>
+        <v>601</v>
       </c>
       <c r="K92" t="s">
-        <v>511</v>
+        <v>602</v>
       </c>
       <c r="L92" t="s">
-        <v>512</v>
+        <v>603</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>513</v>
+        <v>604</v>
       </c>
       <c r="O92" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P92" t="n">
         <v>1</v>
@@ -7951,56 +8522,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>514</v>
+        <v>605</v>
       </c>
       <c r="X92" t="s">
-        <v>515</v>
+        <v>606</v>
       </c>
       <c r="Y92" t="s">
-        <v>516</v>
+        <v>607</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>3520</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>176245</v>
+      </c>
+      <c r="C93" t="s">
+        <v>608</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>517</v>
+        <v>609</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>518</v>
+        <v>610</v>
       </c>
       <c r="J93" t="s">
-        <v>519</v>
+        <v>611</v>
       </c>
       <c r="K93" t="s">
-        <v>520</v>
+        <v>612</v>
       </c>
       <c r="L93" t="s">
-        <v>521</v>
+        <v>613</v>
       </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
       <c r="N93" t="s">
-        <v>513</v>
+        <v>604</v>
       </c>
       <c r="O93" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P93" t="n">
         <v>1</v>
@@ -8024,50 +8599,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>521</v>
+        <v>613</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>3520</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>176246</v>
+      </c>
+      <c r="C94" t="s">
+        <v>614</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>522</v>
+        <v>615</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>523</v>
+        <v>616</v>
       </c>
       <c r="J94" t="s">
-        <v>524</v>
+        <v>617</v>
       </c>
       <c r="K94" t="s">
-        <v>525</v>
+        <v>618</v>
       </c>
       <c r="L94" t="s">
-        <v>526</v>
+        <v>619</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>527</v>
+        <v>620</v>
       </c>
       <c r="O94" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -8091,7 +8670,7 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>528</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
